--- a/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
+++ b/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="941">
   <si>
     <t>AWACS</t>
   </si>
@@ -1730,9 +1730,6 @@
     <t>SCRAMBLE</t>
   </si>
   <si>
-    <t>HITMAN</t>
-  </si>
-  <si>
     <t>PURPLE 11</t>
   </si>
   <si>
@@ -2171,18 +2168,12 @@
     <t>SPARTAN PRI</t>
   </si>
   <si>
-    <t>HITMAN PRI</t>
-  </si>
-  <si>
     <t>WARRIOR SEC</t>
   </si>
   <si>
     <t>SPARTAN SEC</t>
   </si>
   <si>
-    <t>HITMAN SEC</t>
-  </si>
-  <si>
     <t>AWACS VHF Back-up</t>
   </si>
   <si>
@@ -2342,9 +2333,6 @@
     <t>Ramat David Info.</t>
   </si>
   <si>
-    <t>JTAC HITMAN</t>
-  </si>
-  <si>
     <t>In-Flight Report</t>
   </si>
   <si>
@@ -2381,9 +2369,6 @@
     <t>JTAC SPAR. SEC</t>
   </si>
   <si>
-    <t>JTAC HITM. SEC</t>
-  </si>
-  <si>
     <t>300.000</t>
   </si>
   <si>
@@ -2540,9 +2525,6 @@
     <t>SPARTAN (SEC)</t>
   </si>
   <si>
-    <t>HITMAN (SEC)</t>
-  </si>
-  <si>
     <t>Ramat David TWR</t>
   </si>
   <si>
@@ -2877,6 +2859,33 @@
   </si>
   <si>
     <t>307.50</t>
+  </si>
+  <si>
+    <t>GARFIELD</t>
+  </si>
+  <si>
+    <t>GARFIELD PRI</t>
+  </si>
+  <si>
+    <t>GARFIELD SEC</t>
+  </si>
+  <si>
+    <t>GARFIELD (SEC)</t>
+  </si>
+  <si>
+    <t>JTAC GARFIELD</t>
+  </si>
+  <si>
+    <t>JTAC GARF. SEC</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>UHF 20</t>
+  </si>
+  <si>
+    <t>VHG</t>
   </si>
 </sst>
 </file>
@@ -3906,7 +3915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4367,246 +4376,6 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4634,6 +4403,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4676,7 +4686,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4695,6 +4705,53 @@
         <a:xfrm>
           <a:off x="133350" y="7277100"/>
           <a:ext cx="3467100" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11296650" y="1257300"/>
+          <a:ext cx="5638800" cy="3009900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5162,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5226,11 +5283,11 @@
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="S3" s="205" t="s">
+      <c r="S3" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
       <c r="W3" s="7" t="s">
         <v>2</v>
       </c>
@@ -5241,13 +5298,13 @@
         <v>479</v>
       </c>
       <c r="Z3" s="120"/>
-      <c r="AD3" s="206" t="s">
+      <c r="AD3" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="207"/>
-      <c r="AG3" s="207"/>
-      <c r="AH3" s="208"/>
+      <c r="AE3" s="213"/>
+      <c r="AF3" s="213"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="214"/>
     </row>
     <row r="4" spans="2:34" ht="15.75">
       <c r="B4" s="57" t="s">
@@ -5287,20 +5344,20 @@
         <v>21</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="O4" s="58" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="52"/>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="215" t="s">
+        <v>636</v>
+      </c>
+      <c r="T4" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="T4" s="97" t="s">
-        <v>638</v>
-      </c>
       <c r="U4" s="98" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>3</v>
@@ -5356,7 +5413,7 @@
       <c r="L5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="283" t="s">
+      <c r="M5" s="203" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="39"/>
@@ -5364,12 +5421,12 @@
         <v>22</v>
       </c>
       <c r="P5" s="52"/>
-      <c r="S5" s="199"/>
+      <c r="S5" s="216"/>
       <c r="T5" s="31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>4</v>
@@ -5381,6 +5438,7 @@
         <v>487</v>
       </c>
       <c r="Z5" s="120"/>
+      <c r="AB5" s="289"/>
       <c r="AD5" s="7" t="s">
         <v>492</v>
       </c>
@@ -5394,7 +5452,7 @@
         <v>184</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1">
@@ -5440,15 +5498,15 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="200"/>
+      <c r="S6" s="217"/>
       <c r="T6" s="99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>5</v>
@@ -5474,7 +5532,7 @@
         <v>60</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="15.75">
@@ -5515,7 +5573,7 @@
         <v>57</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="O7" s="58" t="s">
         <v>46</v>
@@ -5525,11 +5583,11 @@
         <v>284</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="198" t="s">
-        <v>643</v>
+      <c r="S7" s="215" t="s">
+        <v>642</v>
       </c>
       <c r="T7" s="97" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="U7" s="98" t="s">
         <v>503</v>
@@ -5545,19 +5603,19 @@
       </c>
       <c r="Z7" s="120"/>
       <c r="AD7" s="7" t="s">
-        <v>555</v>
+        <v>932</v>
       </c>
       <c r="AE7" s="112" t="s">
         <v>81</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG7" s="112" t="s">
         <v>130</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="15.75">
@@ -5606,9 +5664,9 @@
         <v>285</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="199"/>
+      <c r="S8" s="216"/>
       <c r="T8" s="31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>504</v>
@@ -5675,9 +5733,9 @@
         <v>286</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="200"/>
+      <c r="S9" s="217"/>
       <c r="T9" s="99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U9" s="25" t="s">
         <v>505</v>
@@ -5692,10 +5750,10 @@
         <v>378</v>
       </c>
       <c r="Z9" s="183" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA9" s="183" t="s">
         <v>733</v>
-      </c>
-      <c r="AA9" s="183" t="s">
-        <v>736</v>
       </c>
       <c r="AE9" s="41"/>
       <c r="AF9" s="41"/>
@@ -5739,7 +5797,7 @@
         <v>93</v>
       </c>
       <c r="N10" s="53" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="O10" s="58" t="s">
         <v>82</v>
@@ -5753,7 +5811,7 @@
       <c r="T10" s="67"/>
       <c r="U10" s="101"/>
       <c r="W10" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="X10" s="66">
         <v>302</v>
@@ -5765,8 +5823,8 @@
       <c r="AA10" s="38">
         <v>502</v>
       </c>
-      <c r="AB10" s="288" t="s">
-        <v>839</v>
+      <c r="AB10" s="208" t="s">
+        <v>833</v>
       </c>
       <c r="AC10" t="s">
         <v>34</v>
@@ -5808,7 +5866,7 @@
       <c r="L11" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="283" t="s">
+      <c r="M11" s="203" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="39"/>
@@ -5820,17 +5878,17 @@
         <v>9</v>
       </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="201" t="s">
+      <c r="S11" s="219" t="s">
+        <v>643</v>
+      </c>
+      <c r="T11" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="U11" s="103" t="s">
         <v>644</v>
       </c>
-      <c r="T11" s="102" t="s">
-        <v>638</v>
-      </c>
-      <c r="U11" s="103" t="s">
-        <v>645</v>
-      </c>
       <c r="W11" s="38" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="X11" s="7">
         <v>301</v>
@@ -5843,7 +5901,7 @@
         <v>501</v>
       </c>
       <c r="AB11" s="41" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AC11" t="s">
         <v>10</v>
@@ -5896,15 +5954,15 @@
       <c r="P12" s="93"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="202"/>
+      <c r="S12" s="220"/>
       <c r="T12" s="96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="X12" s="7">
         <v>303</v>
@@ -5917,7 +5975,7 @@
         <v>503</v>
       </c>
       <c r="AB12" s="41" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AC12" t="s">
         <v>34</v>
@@ -5967,36 +6025,36 @@
       <c r="P13" s="93"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="203"/>
+      <c r="S13" s="221"/>
       <c r="T13" s="104" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W13" s="158" t="s">
         <v>422</v>
       </c>
-      <c r="X13" s="277">
+      <c r="X13" s="197">
         <v>304</v>
       </c>
       <c r="Z13" s="158">
         <v>5004</v>
       </c>
-      <c r="AA13" s="276">
+      <c r="AA13" s="196">
         <v>504</v>
       </c>
       <c r="AB13" s="41" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AC13" t="s">
         <v>34</v>
       </c>
-      <c r="AE13" s="206" t="s">
-        <v>629</v>
-      </c>
-      <c r="AF13" s="207"/>
-      <c r="AG13" s="208"/>
+      <c r="AE13" s="212" t="s">
+        <v>628</v>
+      </c>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
     </row>
     <row r="14" spans="2:34" ht="15.75">
       <c r="B14" s="57" t="s">
@@ -6044,14 +6102,14 @@
         <v>281</v>
       </c>
       <c r="R14" s="3"/>
-      <c r="S14" s="198" t="s">
+      <c r="S14" s="215" t="s">
+        <v>646</v>
+      </c>
+      <c r="T14" s="102" t="s">
+        <v>637</v>
+      </c>
+      <c r="U14" s="98" t="s">
         <v>647</v>
-      </c>
-      <c r="T14" s="102" t="s">
-        <v>638</v>
-      </c>
-      <c r="U14" s="98" t="s">
-        <v>648</v>
       </c>
       <c r="AE14" s="118" t="s">
         <v>290</v>
@@ -6097,11 +6155,11 @@
       <c r="L15" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="284" t="s">
+      <c r="M15" s="204" t="s">
         <v>152</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="O15" s="58" t="s">
         <v>141</v>
@@ -6111,24 +6169,24 @@
         <v>294</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="199"/>
+      <c r="S15" s="216"/>
       <c r="T15" s="96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>649</v>
-      </c>
-      <c r="W15" s="196" t="s">
+        <v>648</v>
+      </c>
+      <c r="W15" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="196"/>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="X15" s="211"/>
+      <c r="Y15" s="211"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="211"/>
+      <c r="AB15" s="211"/>
+      <c r="AC15" s="211"/>
       <c r="AE15" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF15" s="108" t="s">
         <v>100</v>
@@ -6137,7 +6195,7 @@
         <v>480</v>
       </c>
       <c r="AH15" s="41" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="16.5" thickBot="1">
@@ -6172,22 +6230,22 @@
       <c r="L16" s="60">
         <v>10</v>
       </c>
-      <c r="M16" s="285">
+      <c r="M16" s="205">
         <v>11</v>
       </c>
-      <c r="N16" s="286"/>
+      <c r="N16" s="206"/>
       <c r="O16" s="58"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="3" t="s">
         <v>293</v>
       </c>
       <c r="R16" s="3"/>
-      <c r="S16" s="200"/>
+      <c r="S16" s="217"/>
       <c r="T16" s="104" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U16" s="25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W16" s="183" t="s">
         <v>290</v>
@@ -6205,13 +6263,13 @@
         <v>303</v>
       </c>
       <c r="AB16" s="183" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AC16" s="183" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF16" s="108" t="s">
         <v>115</v>
@@ -6220,7 +6278,7 @@
         <v>482</v>
       </c>
       <c r="AH16" s="158" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="2:34">
@@ -6261,7 +6319,7 @@
         <v>164</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="O17" s="58" t="s">
         <v>153</v>
@@ -6272,19 +6330,19 @@
       </c>
       <c r="R17" s="3"/>
       <c r="W17" s="7" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="X17" s="39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Y17" s="39" t="s">
         <v>91</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AB17" s="7">
         <v>5201</v>
@@ -6293,7 +6351,7 @@
         <v>521</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF17" s="107" t="s">
         <v>96</v>
@@ -6302,7 +6360,7 @@
         <v>481</v>
       </c>
       <c r="AH17" s="158" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="2:34">
@@ -6356,19 +6414,19 @@
       <c r="U18" s="95"/>
       <c r="V18" s="41"/>
       <c r="W18" s="7" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="X18" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Y18" s="53" t="s">
         <v>194</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB18" s="7">
         <v>5202</v>
@@ -6377,7 +6435,7 @@
         <v>522</v>
       </c>
       <c r="AE18" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF18" s="108" t="s">
         <v>26</v>
@@ -6385,8 +6443,8 @@
       <c r="AG18" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="AH18" s="276" t="s">
-        <v>902</v>
+      <c r="AH18" s="196" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="2:34">
@@ -6440,19 +6498,19 @@
       <c r="U19" s="94"/>
       <c r="V19" s="41"/>
       <c r="W19" s="7" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="X19" s="39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Y19" s="39" t="s">
         <v>89</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AB19" s="7">
         <v>5402</v>
@@ -6461,7 +6519,7 @@
         <v>541</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF19" s="108" t="s">
         <v>143</v>
@@ -6469,8 +6527,8 @@
       <c r="AG19" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="AH19" s="276" t="s">
-        <v>903</v>
+      <c r="AH19" s="196" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="20" spans="2:34">
@@ -6519,26 +6577,26 @@
         <v>302</v>
       </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="196" t="s">
+      <c r="S20" s="211" t="s">
         <v>281</v>
       </c>
-      <c r="T20" s="196"/>
-      <c r="U20" s="196"/>
+      <c r="T20" s="211"/>
+      <c r="U20" s="211"/>
       <c r="V20" s="3"/>
       <c r="W20" s="39" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="X20" s="39" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Y20" s="39" t="s">
         <v>171</v>
       </c>
       <c r="Z20" s="39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AA20" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AB20" s="7">
         <v>5402</v>
@@ -6547,7 +6605,7 @@
         <v>542</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF20" s="107" t="s">
         <v>230</v>
@@ -6555,8 +6613,8 @@
       <c r="AG20" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="AH20" s="276" t="s">
-        <v>904</v>
+      <c r="AH20" s="196" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="2:34">
@@ -6615,19 +6673,19 @@
       </c>
       <c r="V21" s="41"/>
       <c r="W21" s="158" t="s">
-        <v>914</v>
-      </c>
-      <c r="X21" s="278" t="s">
-        <v>916</v>
+        <v>908</v>
+      </c>
+      <c r="X21" s="198" t="s">
+        <v>910</v>
       </c>
       <c r="Y21" s="53" t="s">
         <v>67</v>
       </c>
       <c r="Z21" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="AA21" s="158" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AB21" s="158">
         <v>5403</v>
@@ -6636,7 +6694,7 @@
         <v>543</v>
       </c>
       <c r="AE21" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF21" s="107" t="s">
         <v>188</v>
@@ -6644,8 +6702,8 @@
       <c r="AG21" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="AH21" s="276" t="s">
-        <v>905</v>
+      <c r="AH21" s="196" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="2:34">
@@ -6682,7 +6740,7 @@
       <c r="L22" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="M22" s="283" t="s">
+      <c r="M22" s="203" t="s">
         <v>224</v>
       </c>
       <c r="N22" s="39"/>
@@ -6703,7 +6761,7 @@
         <v>478</v>
       </c>
       <c r="W22" s="184" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X22" s="185"/>
       <c r="Y22" s="185"/>
@@ -6712,7 +6770,7 @@
       <c r="AB22" s="185"/>
       <c r="AC22" s="186"/>
       <c r="AE22" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF22" s="107" t="s">
         <v>222</v>
@@ -6720,8 +6778,8 @@
       <c r="AG22" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="AH22" s="276" t="s">
-        <v>906</v>
+      <c r="AH22" s="196" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="2:34">
@@ -6770,13 +6828,13 @@
         <v>385</v>
       </c>
       <c r="S23" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="T23" s="9" t="s">
         <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W23" s="183" t="s">
         <v>290</v>
@@ -6794,13 +6852,13 @@
         <v>303</v>
       </c>
       <c r="AB23" s="183" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AC23" s="183" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF23" s="108" t="s">
         <v>47</v>
@@ -6854,29 +6912,29 @@
       <c r="Q24" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="S24" s="279" t="s">
-        <v>841</v>
-      </c>
-      <c r="T24" s="280" t="s">
+      <c r="S24" s="199" t="s">
+        <v>835</v>
+      </c>
+      <c r="T24" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="U24" s="279" t="s">
-        <v>842</v>
+      <c r="U24" s="199" t="s">
+        <v>836</v>
       </c>
       <c r="W24" s="39" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="X24" s="39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Y24" s="39" t="s">
         <v>110</v>
       </c>
       <c r="Z24" s="39" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AA24" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AB24" s="7">
         <v>5301</v>
@@ -6885,7 +6943,7 @@
         <v>531</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF24" s="108" t="s">
         <v>93</v>
@@ -6928,7 +6986,7 @@
       <c r="L25" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="M25" s="283" t="s">
+      <c r="M25" s="203" t="s">
         <v>260</v>
       </c>
       <c r="N25" s="39"/>
@@ -6937,26 +6995,26 @@
       </c>
       <c r="P25" s="105"/>
       <c r="Q25" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S25" s="95"/>
       <c r="T25" s="95"/>
       <c r="U25" s="95"/>
       <c r="V25" s="41"/>
       <c r="W25" s="7" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="X25" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Y25" s="39" t="s">
         <v>269</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AA25" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AB25" s="7">
         <v>5302</v>
@@ -6965,7 +7023,7 @@
         <v>532</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF25" s="108" t="s">
         <v>117</v>
@@ -7006,7 +7064,7 @@
       <c r="L26" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="M26" s="283" t="s">
+      <c r="M26" s="203" t="s">
         <v>440</v>
       </c>
       <c r="N26" s="39"/>
@@ -7020,19 +7078,19 @@
       <c r="U26" s="94"/>
       <c r="V26" s="94"/>
       <c r="W26" s="7" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y26" s="53" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="AA26" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AB26" s="7">
         <v>5501</v>
@@ -7041,38 +7099,38 @@
         <v>551</v>
       </c>
       <c r="AE26" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF26" s="108" t="s">
         <v>21</v>
       </c>
       <c r="AG26" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="287" t="s">
+      <c r="C27" s="207" t="s">
         <v>441</v>
       </c>
-      <c r="D27" s="287" t="s">
+      <c r="D27" s="207" t="s">
         <v>442</v>
       </c>
-      <c r="E27" s="287" t="s">
+      <c r="E27" s="207" t="s">
         <v>443</v>
       </c>
-      <c r="F27" s="287" t="s">
+      <c r="F27" s="207" t="s">
         <v>444</v>
       </c>
-      <c r="G27" s="287" t="s">
+      <c r="G27" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="287" t="s">
+      <c r="H27" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="I27" s="287" t="s">
+      <c r="I27" s="207" t="s">
         <v>273</v>
       </c>
       <c r="J27" s="15" t="s">
@@ -7088,7 +7146,7 @@
         <v>445</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="O27" s="58" t="s">
         <v>270</v>
@@ -7099,19 +7157,19 @@
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
       <c r="W27" s="7" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Y27" s="53" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="AA27" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB27" s="7">
         <v>5502</v>
@@ -7120,18 +7178,18 @@
         <v>552</v>
       </c>
       <c r="AE27" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF27" s="107" t="s">
         <v>35</v>
       </c>
       <c r="AG27" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="2:34">
-      <c r="B28" s="281" t="s">
-        <v>936</v>
+      <c r="B28" s="201" t="s">
+        <v>930</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7145,10 +7203,10 @@
       <c r="L28" s="39"/>
       <c r="M28" s="38"/>
       <c r="N28" s="41" t="s">
-        <v>937</v>
-      </c>
-      <c r="O28" s="281" t="s">
-        <v>936</v>
+        <v>931</v>
+      </c>
+      <c r="O28" s="201" t="s">
+        <v>930</v>
       </c>
       <c r="P28" s="52"/>
       <c r="S28" s="41"/>
@@ -7208,19 +7266,19 @@
       <c r="U29" s="41"/>
       <c r="V29" s="41"/>
       <c r="W29" s="158" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="X29" s="158" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="Y29" s="53" t="s">
         <v>32</v>
       </c>
       <c r="Z29" s="158" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AB29" s="158">
         <v>5503</v>
@@ -7229,55 +7287,55 @@
         <v>553</v>
       </c>
       <c r="AE29" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF29" s="107" t="s">
         <v>238</v>
       </c>
       <c r="AG29" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="2:34">
       <c r="AE30" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF30" s="108" t="s">
         <v>136</v>
       </c>
       <c r="AG30" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="206" t="s">
+      <c r="B32" s="212" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="208"/>
-      <c r="J32" s="196" t="s">
+      <c r="C32" s="213"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="214"/>
+      <c r="J32" s="211" t="s">
         <v>300</v>
       </c>
-      <c r="K32" s="196"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="196"/>
-      <c r="N32" s="196"/>
-      <c r="O32" s="196"/>
-      <c r="P32" s="196"/>
-      <c r="Q32" s="196"/>
-      <c r="U32" s="196" t="s">
+      <c r="K32" s="211"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="211"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="211"/>
+      <c r="U32" s="211" t="s">
         <v>283</v>
       </c>
-      <c r="V32" s="196"/>
-      <c r="W32" s="196"/>
-      <c r="X32" s="196"/>
-      <c r="Y32" s="196"/>
-      <c r="Z32" s="196"/>
-      <c r="AA32" s="196"/>
+      <c r="V32" s="211"/>
+      <c r="W32" s="211"/>
+      <c r="X32" s="211"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="211"/>
+      <c r="AA32" s="211"/>
     </row>
     <row r="33" spans="2:37">
       <c r="B33" s="51" t="s">
@@ -7313,7 +7371,7 @@
       <c r="M33" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="N33" s="282"/>
+      <c r="N33" s="202"/>
       <c r="O33" s="51" t="s">
         <v>290</v>
       </c>
@@ -7392,7 +7450,7 @@
         <v>408</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W34" s="7" t="s">
         <v>399</v>
@@ -7407,7 +7465,7 @@
         <v>248</v>
       </c>
       <c r="AA34" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="2:37">
@@ -7457,7 +7515,7 @@
         <v>417</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W35" s="7" t="s">
         <v>399</v>
@@ -7472,7 +7530,7 @@
         <v>128</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AE35" s="88" t="s">
         <v>509</v>
@@ -7490,10 +7548,10 @@
         <v>303</v>
       </c>
       <c r="AJ35" s="88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AK35" s="157" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="2:37">
@@ -7543,7 +7601,7 @@
         <v>423</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>399</v>
@@ -7558,28 +7616,28 @@
         <v>223</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="AE36" s="204" t="s">
-        <v>695</v>
+        <v>577</v>
+      </c>
+      <c r="AE36" s="209" t="s">
+        <v>694</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG36" s="119">
         <v>309100</v>
       </c>
       <c r="AH36" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AJ36" s="7">
         <v>12</v>
       </c>
       <c r="AK36" s="38" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="2:37">
@@ -7587,7 +7645,7 @@
         <v>418</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D37" t="s">
         <v>449</v>
@@ -7629,7 +7687,7 @@
         <v>427</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="W37" s="7" t="s">
         <v>399</v>
@@ -7644,9 +7702,9 @@
         <v>235</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE37" s="204"/>
+        <v>578</v>
+      </c>
+      <c r="AE37" s="209"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
@@ -7659,7 +7717,7 @@
         <v>420</v>
       </c>
       <c r="C38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D38" t="s">
         <v>449</v>
@@ -7701,7 +7759,7 @@
         <v>431</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W38" s="7" t="s">
         <v>399</v>
@@ -7716,9 +7774,9 @@
         <v>150</v>
       </c>
       <c r="AA38" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE38" s="204"/>
+        <v>579</v>
+      </c>
+      <c r="AE38" s="209"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
@@ -7731,7 +7789,7 @@
         <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J39" t="s">
         <v>412</v>
@@ -7758,7 +7816,7 @@
         <v>429</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W39" s="7" t="s">
         <v>399</v>
@@ -7773,9 +7831,9 @@
         <v>138</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE39" s="204"/>
+        <v>594</v>
+      </c>
+      <c r="AE39" s="209"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
@@ -7788,26 +7846,26 @@
         <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>567</v>
-      </c>
-      <c r="J40" s="197" t="s">
+        <v>566</v>
+      </c>
+      <c r="J40" s="218" t="s">
         <v>475</v>
       </c>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="197"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="218"/>
+      <c r="P40" s="218"/>
+      <c r="Q40" s="218"/>
       <c r="T40">
         <v>7</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W40" s="7" t="s">
         <v>399</v>
@@ -7822,7 +7880,7 @@
         <v>208</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="2:37">
@@ -7830,22 +7888,22 @@
         <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M41" s="15" t="s">
         <v>445</v>
       </c>
       <c r="O41" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="T41">
         <v>8</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>399</v>
@@ -7860,7 +7918,7 @@
         <v>264</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="2:37">
@@ -7868,7 +7926,7 @@
         <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M42" s="15" t="s">
         <v>274</v>
@@ -7880,10 +7938,10 @@
         <v>9</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>399</v>
@@ -7898,7 +7956,7 @@
         <v>207</v>
       </c>
       <c r="AA42" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="2:37">
@@ -7906,13 +7964,13 @@
         <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M43" s="15" t="s">
         <v>30</v>
       </c>
       <c r="O43" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T43">
         <v>10</v>
@@ -7932,7 +7990,7 @@
         <v>241</v>
       </c>
       <c r="AA43" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="2:37">
@@ -7946,63 +8004,63 @@
     </row>
     <row r="45" spans="2:37">
       <c r="U45" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V45" s="7"/>
       <c r="W45" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="X45" s="109" t="s">
         <v>71</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Z45" s="110" t="s">
         <v>132</v>
       </c>
       <c r="AA45" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="2:37">
       <c r="U46" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V46" s="7"/>
       <c r="W46" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="X46" s="109" t="s">
         <v>124</v>
       </c>
       <c r="Y46" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Z46" s="110" t="s">
         <v>57</v>
       </c>
       <c r="AA46" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="2:37">
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="X47" s="109" t="s">
         <v>102</v>
       </c>
       <c r="Y47" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Z47" s="110" t="s">
         <v>192</v>
       </c>
       <c r="AA47" s="111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="2:37">
@@ -8022,16 +8080,16 @@
         <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="J49" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L49" s="167">
         <v>65.599999999999994</v>
       </c>
       <c r="M49" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -8046,35 +8104,35 @@
         <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="J50" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L50" s="167">
         <v>65.7</v>
       </c>
       <c r="M50" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V50" s="7"/>
       <c r="W50" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X50" s="109" t="s">
         <v>87</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Z50" s="110" t="s">
         <v>111</v>
       </c>
       <c r="AA50" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="4:27">
@@ -8082,152 +8140,159 @@
         <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J51" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L51" s="167">
         <v>65.8</v>
       </c>
       <c r="M51" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X51" s="109" t="s">
         <v>145</v>
       </c>
       <c r="Y51" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Z51" s="110" t="s">
         <v>123</v>
       </c>
       <c r="AA51" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="4:27">
       <c r="J52" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L52" s="167">
         <v>65.900000000000006</v>
       </c>
       <c r="M52" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="U52" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V52" s="7"/>
       <c r="W52" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X52" s="109" t="s">
         <v>61</v>
       </c>
       <c r="Y52" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Z52" s="110" t="s">
         <v>137</v>
       </c>
       <c r="AA52" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="4:27">
       <c r="J53" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L53" s="167">
         <v>66</v>
       </c>
       <c r="M53" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X53" s="109" t="s">
         <v>204</v>
       </c>
       <c r="Y53" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z53" s="110" t="s">
         <v>80</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54" spans="4:27">
       <c r="J54" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L54" s="167">
         <v>66.099999999999994</v>
       </c>
       <c r="M54" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="4:27">
       <c r="J55" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L55" s="167">
         <v>66.2</v>
       </c>
       <c r="M55" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="56" spans="4:27">
       <c r="J56" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L56" s="167">
         <v>66.300000000000097</v>
       </c>
       <c r="M56" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="4:27">
       <c r="J57" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L57" s="167">
         <v>66.400000000000105</v>
       </c>
       <c r="M57" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="4:27">
       <c r="J58" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L58" s="167">
         <v>66.500000000000099</v>
       </c>
       <c r="M58" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S16"/>
     <mergeCell ref="AE36:AE39"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="S20:U20"/>
@@ -8235,13 +8300,6 @@
     <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="U32:AA32"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S14:S16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8253,7 +8311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21:S30"/>
     </sheetView>
   </sheetViews>
@@ -8268,34 +8326,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="273" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="261"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="234" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="221" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="234" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="54">
@@ -8652,14 +8710,14 @@
       <c r="F21" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="N21" s="262" t="s">
-        <v>827</v>
-      </c>
-      <c r="O21" s="262"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="262"/>
+      <c r="N21" s="275" t="s">
+        <v>821</v>
+      </c>
+      <c r="O21" s="275"/>
+      <c r="P21" s="275"/>
+      <c r="Q21" s="275"/>
+      <c r="R21" s="275"/>
+      <c r="S21" s="275"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" thickBot="1">
       <c r="A22" s="54">
@@ -8680,12 +8738,12 @@
       <c r="F22" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="O22" s="263" t="s">
+      <c r="O22" s="276" t="s">
         <v>363</v>
       </c>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="263"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="276"/>
+      <c r="R22" s="276"/>
     </row>
     <row r="23" spans="1:19" ht="19.5" thickBot="1">
       <c r="A23" s="54">
@@ -8898,7 +8956,7 @@
         <v>126</v>
       </c>
       <c r="R29" s="43" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="18.75">
@@ -8942,22 +9000,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="262" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
+      <c r="A1" s="275" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="276" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="B3" s="43"/>
@@ -8976,10 +9034,10 @@
         <v>364</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E4" s="43"/>
     </row>
@@ -8994,7 +9052,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
@@ -9002,13 +9060,13 @@
         <v>368</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75">
@@ -9016,13 +9074,13 @@
         <v>370</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
@@ -9030,10 +9088,10 @@
         <v>373</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>508</v>
@@ -9047,7 +9105,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>375</v>
@@ -9093,69 +9151,69 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="154" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B1" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="154" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="H1" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="I1" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="J1" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="K1" s="154" t="s">
         <v>723</v>
       </c>
-      <c r="D1" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="E1" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="G1" s="154" t="s">
-        <v>727</v>
-      </c>
-      <c r="H1" s="154" t="s">
+      <c r="M1" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="I1" s="154" t="s">
+      <c r="N1" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="O1" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="P1" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q1" s="154" t="s">
         <v>723</v>
       </c>
-      <c r="J1" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="K1" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="M1" s="154" t="s">
-        <v>727</v>
-      </c>
-      <c r="N1" s="154" t="s">
+      <c r="S1" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="O1" s="154" t="s">
+      <c r="T1" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="U1" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="V1" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="W1" s="154" t="s">
         <v>723</v>
-      </c>
-      <c r="P1" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q1" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="S1" s="154" t="s">
-        <v>727</v>
-      </c>
-      <c r="T1" s="154" t="s">
-        <v>724</v>
-      </c>
-      <c r="U1" s="154" t="s">
-        <v>723</v>
-      </c>
-      <c r="V1" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="W1" s="154" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -9164,13 +9222,13 @@
         <v>411</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -9182,10 +9240,10 @@
         <v>449</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -9197,10 +9255,10 @@
         <v>387</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="S2" s="65" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="T2" s="65">
         <v>1</v>
@@ -9209,10 +9267,10 @@
         <v>611</v>
       </c>
       <c r="V2" s="65" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="W2" s="65" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -9224,10 +9282,10 @@
         <v>412</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -9238,7 +9296,7 @@
         <v>449</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -9249,7 +9307,7 @@
         <v>387</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
@@ -9257,10 +9315,10 @@
         <v>612</v>
       </c>
       <c r="V3" s="65" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="W3" s="65" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -9272,10 +9330,10 @@
         <v>413</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -9286,7 +9344,7 @@
         <v>449</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -9297,7 +9355,7 @@
         <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="S4" s="65"/>
       <c r="T4" s="65"/>
@@ -9305,10 +9363,10 @@
         <v>613</v>
       </c>
       <c r="V4" s="65" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="W4" s="65" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -9320,10 +9378,10 @@
         <v>414</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -9334,7 +9392,7 @@
         <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -9345,7 +9403,7 @@
         <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="S5" s="65"/>
       <c r="T5" s="65"/>
@@ -9353,15 +9411,15 @@
         <v>614</v>
       </c>
       <c r="V5" s="65" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="W5" s="65" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
@@ -9370,13 +9428,13 @@
         <v>421</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -9388,10 +9446,10 @@
         <v>449</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N6" s="7">
         <v>2</v>
@@ -9403,7 +9461,7 @@
         <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -9415,10 +9473,10 @@
         <v>422</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9429,7 +9487,7 @@
         <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -9440,7 +9498,7 @@
         <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -9452,10 +9510,10 @@
         <v>423</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9466,7 +9524,7 @@
         <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -9477,7 +9535,7 @@
         <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -9489,10 +9547,10 @@
         <v>424</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9503,7 +9561,7 @@
         <v>449</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -9514,12 +9572,12 @@
         <v>387</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -9528,13 +9586,13 @@
         <v>431</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -9546,7 +9604,7 @@
         <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -9563,10 +9621,10 @@
         <v>432</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9577,7 +9635,7 @@
         <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -9594,10 +9652,10 @@
         <v>433</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9608,7 +9666,7 @@
         <v>449</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -9625,10 +9683,10 @@
         <v>434</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9639,7 +9697,7 @@
         <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -9658,13 +9716,13 @@
         <v>441</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -9676,7 +9734,7 @@
         <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -9693,10 +9751,10 @@
         <v>442</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9707,7 +9765,7 @@
         <v>449</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -9724,10 +9782,10 @@
         <v>443</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9738,7 +9796,7 @@
         <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -9755,10 +9813,10 @@
         <v>444</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9769,7 +9827,7 @@
         <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -9779,7 +9837,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B18" s="7">
         <v>5</v>
@@ -9788,10 +9846,10 @@
         <v>451</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9808,10 +9866,10 @@
         <v>452</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9828,10 +9886,10 @@
         <v>453</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -9848,10 +9906,10 @@
         <v>454</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -9861,7 +9919,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -9870,10 +9928,10 @@
         <v>461</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -9881,19 +9939,19 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="M22" s="154" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N22" s="154" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="O22" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="P22" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q22" s="154" t="s">
         <v>723</v>
-      </c>
-      <c r="P22" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q22" s="154" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -9905,10 +9963,10 @@
         <v>462</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -9916,7 +9974,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -9925,10 +9983,10 @@
         <v>711</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -9940,10 +9998,10 @@
         <v>463</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -9951,7 +10009,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -9960,10 +10018,10 @@
         <v>712</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -9975,10 +10033,10 @@
         <v>464</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -9986,7 +10044,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="M25" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -9995,10 +10053,10 @@
         <v>713</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -10013,7 +10071,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -10022,10 +10080,10 @@
         <v>714</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -10040,7 +10098,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="M27" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="N27" s="7">
         <v>2</v>
@@ -10049,10 +10107,10 @@
         <v>721</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -10067,7 +10125,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="N28" s="7">
         <v>2</v>
@@ -10076,10 +10134,10 @@
         <v>722</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -10094,7 +10152,7 @@
       <c r="J29" s="168"/>
       <c r="K29" s="168"/>
       <c r="M29" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="N29" s="7">
         <v>2</v>
@@ -10103,10 +10161,10 @@
         <v>723</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -10121,7 +10179,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="M30" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="N30" s="7">
         <v>2</v>
@@ -10130,10 +10188,10 @@
         <v>724</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -10202,54 +10260,54 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="154" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B39" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="D39" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="E39" s="154" t="s">
+        <v>723</v>
+      </c>
+      <c r="G39" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="H39" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="I39" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="J39" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="K39" s="154" t="s">
         <v>723</v>
       </c>
-      <c r="D39" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="E39" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="G39" s="154" t="s">
-        <v>727</v>
-      </c>
-      <c r="H39" s="154" t="s">
+      <c r="M39" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="I39" s="154" t="s">
+      <c r="N39" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="O39" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="P39" s="154" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q39" s="154" t="s">
         <v>723</v>
-      </c>
-      <c r="J39" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="K39" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="M39" s="154" t="s">
-        <v>727</v>
-      </c>
-      <c r="N39" s="154" t="s">
-        <v>724</v>
-      </c>
-      <c r="O39" s="154" t="s">
-        <v>723</v>
-      </c>
-      <c r="P39" s="154" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q39" s="154" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B40" s="7">
         <v>1</v>
@@ -10258,13 +10316,13 @@
         <v>311</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -10273,13 +10331,13 @@
         <v>611</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M40" s="65" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="N40" s="65">
         <v>1</v>
@@ -10288,10 +10346,10 @@
         <v>711</v>
       </c>
       <c r="P40" s="65" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="Q40" s="65" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -10301,10 +10359,10 @@
         <v>312</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -10312,10 +10370,10 @@
         <v>612</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -10332,10 +10390,10 @@
         <v>313</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -10343,10 +10401,10 @@
         <v>613</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -10363,10 +10421,10 @@
         <v>314</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -10374,10 +10432,10 @@
         <v>614</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -10389,7 +10447,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B44" s="7">
         <v>2</v>
@@ -10398,13 +10456,13 @@
         <v>321</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -10413,10 +10471,10 @@
         <v>621</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -10426,10 +10484,10 @@
         <v>322</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -10437,10 +10495,10 @@
         <v>622</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -10450,10 +10508,10 @@
         <v>323</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -10461,10 +10519,10 @@
         <v>623</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -10474,10 +10532,10 @@
         <v>324</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -10485,15 +10543,15 @@
         <v>624</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K47" s="168" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="65" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B48" s="65">
         <v>3</v>
@@ -10502,10 +10560,10 @@
         <v>331</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K48" s="18"/>
     </row>
@@ -10516,10 +10574,10 @@
         <v>332</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -10534,13 +10592,13 @@
         <v>333</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H50" s="2">
         <v>3</v>
@@ -10549,10 +10607,10 @@
         <v>631</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -10562,28 +10620,28 @@
         <v>334</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2">
         <v>632</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="65" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B52" s="65">
         <v>4</v>
@@ -10592,23 +10650,23 @@
         <v>341</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2">
         <v>633</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -10618,23 +10676,23 @@
         <v>342</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2">
         <v>634</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -10644,10 +10702,10 @@
         <v>343</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -10657,10 +10715,10 @@
         <v>344</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -10711,40 +10769,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="270" t="s">
-        <v>892</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="272"/>
+      <c r="A1" s="283" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="285"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="273"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="275"/>
+      <c r="A2" s="286"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="288"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="277" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="264" t="s">
-        <v>847</v>
-      </c>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="266"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="277" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="279"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="177">
@@ -10757,19 +10815,19 @@
         <v>479</v>
       </c>
       <c r="D4" s="179" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E4" s="177">
         <v>1</v>
       </c>
       <c r="F4" s="176" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G4" s="178" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H4" s="179" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
@@ -10783,19 +10841,19 @@
         <v>484</v>
       </c>
       <c r="D5" s="179" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E5" s="177">
         <v>2</v>
       </c>
       <c r="F5" s="176" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G5" s="178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H5" s="179" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
@@ -10806,10 +10864,10 @@
         <v>184</v>
       </c>
       <c r="C6" s="178" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D6" s="179" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E6" s="177">
         <v>3</v>
@@ -10818,10 +10876,10 @@
         <v>505</v>
       </c>
       <c r="G6" s="178" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H6" s="179" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
@@ -10832,10 +10890,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="179" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E7" s="177">
         <v>4</v>
@@ -10844,10 +10902,10 @@
         <v>504</v>
       </c>
       <c r="G7" s="178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H7" s="179" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
@@ -10858,22 +10916,22 @@
         <v>130</v>
       </c>
       <c r="C8" s="178" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D8" s="179" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E8" s="177">
         <v>5</v>
       </c>
       <c r="F8" s="176" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G8" s="178" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H8" s="179" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
@@ -10887,19 +10945,19 @@
         <v>485</v>
       </c>
       <c r="D9" s="179" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E9" s="177">
         <v>6</v>
       </c>
       <c r="F9" s="176" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H9" s="179" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
@@ -10913,7 +10971,7 @@
         <v>487</v>
       </c>
       <c r="D10" s="179" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E10" s="177">
         <v>7</v>
@@ -10925,7 +10983,7 @@
         <v>378</v>
       </c>
       <c r="H10" s="179" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1">
@@ -10943,7 +11001,7 @@
         <v>491</v>
       </c>
       <c r="H11" s="179" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1">
@@ -10961,7 +11019,7 @@
         <v>496</v>
       </c>
       <c r="H12" s="179" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
@@ -10976,10 +11034,10 @@
         <v>81</v>
       </c>
       <c r="G13" s="178" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" s="179" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11063,18 +11121,18 @@
       <c r="H21" s="169"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="267" t="s">
-        <v>848</v>
-      </c>
-      <c r="B22" s="268"/>
-      <c r="C22" s="268"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="267" t="s">
-        <v>849</v>
-      </c>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="269"/>
+      <c r="A22" s="280" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" s="281"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="280" t="s">
+        <v>843</v>
+      </c>
+      <c r="F22" s="281"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="282"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="160">
@@ -11084,10 +11142,10 @@
         <v>65.599999999999994</v>
       </c>
       <c r="C23" s="159" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E23" s="160">
         <v>1</v>
@@ -11099,7 +11157,7 @@
         <v>523</v>
       </c>
       <c r="H23" s="166" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
@@ -11110,10 +11168,10 @@
         <v>65.7</v>
       </c>
       <c r="C24" s="162" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D24" s="162" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E24" s="160">
         <v>2</v>
@@ -11125,7 +11183,7 @@
         <v>463</v>
       </c>
       <c r="H24" s="166" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1">
@@ -11136,10 +11194,10 @@
         <v>65.8</v>
       </c>
       <c r="C25" s="162" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E25" s="160">
         <v>3</v>
@@ -11151,7 +11209,7 @@
         <v>466</v>
       </c>
       <c r="H25" s="166" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
@@ -11162,10 +11220,10 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C26" s="162" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D26" s="162" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E26" s="160">
         <v>4</v>
@@ -11177,7 +11235,7 @@
         <v>467</v>
       </c>
       <c r="H26" s="166" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1">
@@ -11188,10 +11246,10 @@
         <v>66</v>
       </c>
       <c r="C27" s="162" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D27" s="162" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E27" s="160">
         <v>5</v>
@@ -11203,7 +11261,7 @@
         <v>469</v>
       </c>
       <c r="H27" s="166" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1">
@@ -11214,10 +11272,10 @@
         <v>66.099999999999994</v>
       </c>
       <c r="C28" s="162" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D28" s="162" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E28" s="160">
         <v>6</v>
@@ -11229,7 +11287,7 @@
         <v>471</v>
       </c>
       <c r="H28" s="166" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1">
@@ -11240,10 +11298,10 @@
         <v>66.2</v>
       </c>
       <c r="C29" s="162" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D29" s="162" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E29" s="160">
         <v>7</v>
@@ -11255,7 +11313,7 @@
         <v>473</v>
       </c>
       <c r="H29" s="166" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1">
@@ -11266,10 +11324,10 @@
         <v>66.300000000000097</v>
       </c>
       <c r="C30" s="162" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D30" s="162" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E30" s="160">
         <v>8</v>
@@ -11278,7 +11336,7 @@
         <v>36.4</v>
       </c>
       <c r="G30" s="165" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H30" s="163"/>
     </row>
@@ -11290,10 +11348,10 @@
         <v>66.400000000000105</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D31" s="163" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E31" s="160">
         <v>9</v>
@@ -11314,10 +11372,10 @@
         <v>66.500000000000099</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D32" s="163" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E32" s="190">
         <v>10</v>
@@ -11326,7 +11384,7 @@
         <v>32.25</v>
       </c>
       <c r="G32" s="165" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H32" s="163"/>
     </row>
@@ -11445,10 +11503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11464,50 +11522,50 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="209" t="s">
-        <v>898</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="211"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="212"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="214"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="222" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="224"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="225"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="227"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A3" s="228" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229" t="s">
         <v>607</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216" t="s">
-        <v>608</v>
-      </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="217"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="230"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="87" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E4" s="78">
         <v>1</v>
@@ -11515,10 +11573,10 @@
       <c r="F4" s="79"/>
       <c r="G4" s="80"/>
       <c r="H4" s="79" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" thickBot="1">
       <c r="A5" s="77">
         <v>2</v>
       </c>
@@ -11535,16 +11593,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" thickBot="1">
       <c r="A6" s="77">
         <v>3</v>
       </c>
@@ -11561,16 +11619,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" thickBot="1">
       <c r="A7" s="77">
         <v>4</v>
       </c>
@@ -11581,22 +11639,22 @@
         <v>480</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E7" s="78">
         <v>4</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" thickBot="1">
       <c r="A8" s="77">
         <v>5</v>
       </c>
@@ -11607,22 +11665,22 @@
         <v>482</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E8" s="78">
         <v>5</v>
       </c>
       <c r="F8" s="79" t="s">
+        <v>604</v>
+      </c>
+      <c r="G8" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="G8" s="80" t="s">
-        <v>606</v>
-      </c>
       <c r="H8" s="79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" thickBot="1">
       <c r="A9" s="77">
         <v>6</v>
       </c>
@@ -11633,7 +11691,7 @@
         <v>481</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E9" s="78">
         <v>6</v>
@@ -11642,13 +11700,13 @@
         <v>21</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" thickBot="1">
       <c r="A10" s="77">
         <v>7</v>
       </c>
@@ -11659,7 +11717,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E10" s="78">
         <v>7</v>
@@ -11668,13 +11726,13 @@
         <v>35</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" thickBot="1">
       <c r="A11" s="77">
         <v>8</v>
       </c>
@@ -11685,7 +11743,7 @@
         <v>486</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E11" s="78">
         <v>8</v>
@@ -11694,13 +11752,13 @@
         <v>238</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" thickBot="1">
       <c r="A12" s="77">
         <v>9</v>
       </c>
@@ -11711,7 +11769,7 @@
         <v>488</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E12" s="78">
         <v>9</v>
@@ -11720,13 +11778,13 @@
         <v>136</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" thickBot="1">
       <c r="A13" s="77">
         <v>10</v>
       </c>
@@ -11737,7 +11795,7 @@
         <v>489</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E13" s="78">
         <v>10</v>
@@ -11749,10 +11807,10 @@
         <v>378</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" thickBot="1">
       <c r="A14" s="77">
         <v>11</v>
       </c>
@@ -11763,7 +11821,7 @@
         <v>490</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E14" s="78">
         <v>11</v>
@@ -11772,13 +11830,16 @@
         <v>91</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H14" s="79" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1">
+        <v>695</v>
+      </c>
+      <c r="I14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" thickBot="1">
       <c r="A15" s="77">
         <v>12</v>
       </c>
@@ -11789,7 +11850,7 @@
         <v>506</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E15" s="78">
         <v>12</v>
@@ -11798,13 +11859,16 @@
         <v>140</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H15" s="79" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1">
+        <v>696</v>
+      </c>
+      <c r="I15" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" thickBot="1">
       <c r="A16" s="77">
         <v>13</v>
       </c>
@@ -11815,7 +11879,7 @@
         <v>507</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E16" s="78">
         <v>13</v>
@@ -11824,13 +11888,16 @@
         <v>89</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1">
+        <v>697</v>
+      </c>
+      <c r="I16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" thickBot="1">
       <c r="A17" s="77">
         <v>14</v>
       </c>
@@ -11841,7 +11908,7 @@
         <v>508</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E17" s="78">
         <v>14</v>
@@ -11850,13 +11917,16 @@
         <v>171</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1">
+        <v>698</v>
+      </c>
+      <c r="I17" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" thickBot="1">
       <c r="A18" s="77">
         <v>15</v>
       </c>
@@ -11864,10 +11934,10 @@
         <v>184</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E18" s="78">
         <v>15</v>
@@ -11879,10 +11949,13 @@
         <v>491</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1">
+        <v>699</v>
+      </c>
+      <c r="I18" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" thickBot="1">
       <c r="A19" s="77">
         <v>16</v>
       </c>
@@ -11890,10 +11963,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D19" s="113" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E19" s="78">
         <v>16</v>
@@ -11905,10 +11978,10 @@
         <v>496</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" thickBot="1">
       <c r="A20" s="77">
         <v>17</v>
       </c>
@@ -11916,10 +11989,10 @@
         <v>130</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>705</v>
+        <v>934</v>
       </c>
       <c r="E20" s="78">
         <v>17</v>
@@ -11928,13 +12001,13 @@
         <v>81</v>
       </c>
       <c r="G20" s="115" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" thickBot="1">
       <c r="A21" s="77">
         <v>18</v>
       </c>
@@ -11954,7 +12027,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1">
+    <row r="22" spans="1:12" ht="18.75" thickBot="1">
       <c r="A22" s="77">
         <v>19</v>
       </c>
@@ -11974,12 +12047,12 @@
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1">
+    <row r="23" spans="1:12" ht="18.75" thickBot="1">
       <c r="A23" s="77">
         <v>20</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>510</v>
+        <v>938</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="87" t="s">
@@ -11992,7 +12065,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="79"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:12">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
@@ -12002,7 +12075,7 @@
       <c r="G24" s="82"/>
       <c r="H24" s="83"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
       <c r="C25" s="82"/>
@@ -12012,7 +12085,7 @@
       <c r="G25" s="82"/>
       <c r="H25" s="83"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:12">
       <c r="A26" s="81"/>
       <c r="B26" s="82"/>
       <c r="C26" s="82"/>
@@ -12022,7 +12095,7 @@
       <c r="G26" s="82"/>
       <c r="H26" s="83"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:12">
       <c r="A27" s="81"/>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
@@ -12031,8 +12104,14 @@
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
       <c r="H27" s="83"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" t="s">
+        <v>939</v>
+      </c>
+      <c r="L27" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
@@ -12042,7 +12121,7 @@
       <c r="G28" s="82"/>
       <c r="H28" s="83"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:12">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -12052,7 +12131,7 @@
       <c r="G29" s="82"/>
       <c r="H29" s="83"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:12">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -12062,7 +12141,7 @@
       <c r="G30" s="82"/>
       <c r="H30" s="83"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:12">
       <c r="A31" s="81"/>
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
@@ -12072,7 +12151,7 @@
       <c r="G31" s="82"/>
       <c r="H31" s="83"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:12">
       <c r="A32" s="81"/>
       <c r="B32" s="82"/>
       <c r="C32" s="82"/>
@@ -12478,7 +12557,7 @@
         <v>433</v>
       </c>
       <c r="P10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -12486,10 +12565,10 @@
         <v>434</v>
       </c>
       <c r="L11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="2:16">
@@ -12497,10 +12576,10 @@
         <v>435</v>
       </c>
       <c r="L12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -12531,14 +12610,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="231" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="233"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="17"/>
@@ -12549,16 +12628,16 @@
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="234" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="221" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="234" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20">
@@ -12815,8 +12894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12828,28 +12907,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="227" t="s">
-        <v>897</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="240" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="237" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="226"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="27"/>
@@ -12878,10 +12957,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="28">
@@ -12902,10 +12981,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="28">
@@ -12918,7 +12997,7 @@
         <v>91</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
@@ -12926,10 +13005,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="28">
@@ -12950,10 +13029,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="28">
@@ -12974,23 +13053,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="28">
         <v>15</v>
       </c>
       <c r="F8" s="116" t="s">
-        <v>555</v>
+        <v>932</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
@@ -12998,10 +13077,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="28">
@@ -13022,7 +13101,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>505</v>
@@ -13048,7 +13127,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>504</v>
@@ -13074,17 +13153,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="28">
         <v>19</v>
       </c>
       <c r="F12" s="116" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>503</v>
@@ -13096,20 +13175,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="28">
         <v>20</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H13" s="30"/>
     </row>
@@ -13124,16 +13203,16 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="237" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="226"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="239"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="32"/>
@@ -13162,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -13170,7 +13249,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>222</v>
@@ -13197,7 +13276,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>47</v>
@@ -13223,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>93</v>
@@ -13237,7 +13316,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>100</v>
@@ -13249,7 +13328,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>117</v>
@@ -13263,7 +13342,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>115</v>
@@ -13275,13 +13354,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>184</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
@@ -13289,7 +13368,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>96</v>
@@ -13301,13 +13380,13 @@
         <v>16</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
@@ -13315,7 +13394,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>26</v>
@@ -13327,13 +13406,13 @@
         <v>17</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>705</v>
+        <v>934</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
@@ -13341,7 +13420,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>143</v>
@@ -13367,7 +13446,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>230</v>
@@ -13393,7 +13472,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>188</v>
@@ -13423,16 +13502,16 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="226"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="239"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="27"/>
@@ -13499,7 +13578,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>442</v>
@@ -13525,7 +13604,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>443</v>
@@ -13539,7 +13618,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>187</v>
@@ -13551,7 +13630,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>444</v>
@@ -13565,7 +13644,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>214</v>
@@ -13577,7 +13656,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>271</v>
@@ -13591,19 +13670,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>191</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E35" s="28">
         <v>16</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>272</v>
@@ -13617,19 +13696,19 @@
         <v>7</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E36" s="28">
         <v>17</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>273</v>
@@ -13643,13 +13722,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>243</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E37" s="28">
         <v>18</v>
@@ -13658,10 +13737,10 @@
         <v>331</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -13669,13 +13748,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>242</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E38" s="28">
         <v>19</v>
@@ -13684,7 +13763,7 @@
         <v>331</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>473</v>
@@ -13695,13 +13774,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>164</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E39" s="28">
         <v>20</v>
@@ -13713,7 +13792,7 @@
         <v>30</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -13745,12 +13824,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5">
-      <c r="A1" s="228" t="s">
-        <v>896</v>
-      </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
+      <c r="A1" s="241" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="28.5">
@@ -13879,10 +13958,10 @@
         <v>331</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E10" s="42"/>
     </row>
@@ -13894,7 +13973,7 @@
         <v>331</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>473</v>
@@ -13912,7 +13991,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E12" s="42"/>
     </row>
@@ -13944,7 +14023,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13958,28 +14037,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="229" t="s">
-        <v>895</v>
-      </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
+      <c r="A1" s="242" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="237" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="226"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="33" t="s">
@@ -14012,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C4" s="30" t="str">
         <f>[1]Frequencies!T5</f>
@@ -14023,7 +14102,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G4" s="30" t="str">
         <f>[1]Frequencies!T16</f>
@@ -14036,7 +14115,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C5" s="30" t="str">
         <f>[1]Frequencies!T6</f>
@@ -14047,7 +14126,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G5" s="30" t="str">
         <f>[1]Frequencies!T14</f>
@@ -14060,7 +14139,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C6" s="30" t="str">
         <f>[1]Frequencies!T4</f>
@@ -14086,7 +14165,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C7" s="30" t="str">
         <f>[1]Frequencies!T8</f>
@@ -14111,7 +14190,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C8" s="30" t="str">
         <f>[1]Frequencies!T9</f>
@@ -14136,7 +14215,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C9" s="30" t="str">
         <f>[1]Frequencies!T7</f>
@@ -14161,7 +14240,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C10" s="30" t="str">
         <f>[1]Frequencies!T12</f>
@@ -14186,7 +14265,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C11" s="30" t="str">
         <f>[1]Frequencies!T16</f>
@@ -14197,13 +14276,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>555</v>
+        <v>932</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -14211,7 +14290,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C12" s="30" t="str">
         <f>[1]Frequencies!T11</f>
@@ -14236,7 +14315,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C13" s="30" t="str">
         <f>[1]Frequencies!T15</f>
@@ -14270,12 +14349,12 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="237" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="226"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -14443,12 +14522,12 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="237" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -14633,7 +14712,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -14652,40 +14731,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="218" t="s">
-        <v>894</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+      <c r="A1" s="231" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="233"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="232"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="233" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="249"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="73">
@@ -14742,7 +14821,7 @@
         <v>480</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E6" s="73">
         <v>3</v>
@@ -14768,7 +14847,7 @@
         <v>482</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="73">
         <v>4</v>
@@ -14794,7 +14873,7 @@
         <v>481</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" s="73">
         <v>5</v>
@@ -14820,7 +14899,7 @@
         <v>483</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E9" s="73">
         <v>6</v>
@@ -14846,7 +14925,7 @@
         <v>486</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="73">
         <v>7</v>
@@ -14872,7 +14951,7 @@
         <v>488</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="73">
         <v>8</v>
@@ -14898,7 +14977,7 @@
         <v>489</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E12" s="73">
         <v>9</v>
@@ -14907,10 +14986,10 @@
         <v>81</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>555</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1">
@@ -14924,7 +15003,7 @@
         <v>490</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E13" s="73">
         <v>10</v>
@@ -14933,10 +15012,10 @@
         <v>21</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
@@ -14950,7 +15029,7 @@
         <v>506</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E14" s="73">
         <v>11</v>
@@ -14959,10 +15038,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
@@ -14976,7 +15055,7 @@
         <v>507</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E15" s="73">
         <v>12</v>
@@ -14985,10 +15064,10 @@
         <v>238</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
@@ -15002,7 +15081,7 @@
         <v>508</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E16" s="73">
         <v>13</v>
@@ -15011,10 +15090,10 @@
         <v>136</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H16" s="74" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
@@ -15026,7 +15105,7 @@
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="74" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E17" s="73">
         <v>14</v>
@@ -15035,10 +15114,10 @@
         <v>110</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
@@ -15050,7 +15129,7 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="74" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E18" s="73">
         <v>15</v>
@@ -15059,10 +15138,10 @@
         <v>269</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H18" s="74" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
@@ -15074,7 +15153,7 @@
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="74" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E19" s="73">
         <v>16</v>
@@ -15083,10 +15162,10 @@
         <v>151</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1">
@@ -15097,10 +15176,10 @@
         <v>184</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D20" s="155" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E20" s="73">
         <v>17</v>
@@ -15109,10 +15188,10 @@
         <v>48</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
@@ -15123,10 +15202,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D21" s="155" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E21" s="73">
         <v>18</v>
@@ -15147,10 +15226,10 @@
         <v>130</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D22" s="155" t="s">
-        <v>825</v>
+        <v>935</v>
       </c>
       <c r="E22" s="73">
         <v>19</v>
@@ -15168,21 +15247,21 @@
         <v>20</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C23" s="72"/>
       <c r="D23" s="72" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E23" s="73">
         <v>20</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G23" s="72"/>
       <c r="H23" s="72" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1">
@@ -15194,11 +15273,11 @@
         <v>21</v>
       </c>
       <c r="F24" s="72" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G24" s="72"/>
       <c r="H24" s="72" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1">
@@ -15210,11 +15289,11 @@
         <v>22</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="72" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
@@ -15226,11 +15305,11 @@
         <v>23</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G26" s="72"/>
       <c r="H26" s="74" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
@@ -15242,11 +15321,11 @@
         <v>24</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="74" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
@@ -15310,7 +15389,7 @@
       </c>
       <c r="G31" s="72"/>
       <c r="H31" s="72" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
@@ -15326,7 +15405,7 @@
       </c>
       <c r="G32" s="72"/>
       <c r="H32" s="72" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1">
@@ -15342,7 +15421,7 @@
       </c>
       <c r="G33" s="72"/>
       <c r="H33" s="74" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -15361,7 +15440,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -15378,40 +15457,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="237" t="s">
-        <v>893</v>
-      </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
+      <c r="A1" s="267" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
+      <c r="A2" s="268"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="269" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="239" t="s">
+      <c r="B3" s="270"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="269" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="242"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="272"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="124">
@@ -15424,19 +15503,19 @@
         <v>480</v>
       </c>
       <c r="D4" s="127" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="128">
         <v>1</v>
       </c>
       <c r="F4" s="129" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G4" s="130" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H4" s="131" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -15450,19 +15529,19 @@
         <v>482</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E5" s="136">
         <v>2</v>
       </c>
       <c r="F5" s="137" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G5" s="138" t="s">
+        <v>746</v>
+      </c>
+      <c r="H5" s="139" t="s">
         <v>749</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -15476,19 +15555,19 @@
         <v>481</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E6" s="132">
         <v>3</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H6" s="141" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -15502,19 +15581,19 @@
         <v>483</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E7" s="136">
         <v>4</v>
       </c>
       <c r="F7" s="137" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H7" s="139" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
@@ -15528,19 +15607,19 @@
         <v>486</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E8" s="132">
         <v>5</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H8" s="141" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -15554,7 +15633,7 @@
         <v>488</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E9" s="136">
         <v>6</v>
@@ -15580,7 +15659,7 @@
         <v>489</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E10" s="132">
         <v>7</v>
@@ -15606,7 +15685,7 @@
         <v>490</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E11" s="136">
         <v>8</v>
@@ -15615,10 +15694,10 @@
         <v>81</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>759</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -15632,7 +15711,7 @@
         <v>506</v>
       </c>
       <c r="D12" s="140" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E12" s="132">
         <v>9</v>
@@ -15658,7 +15737,7 @@
         <v>507</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E13" s="136">
         <v>10</v>
@@ -15670,7 +15749,7 @@
         <v>484</v>
       </c>
       <c r="H13" s="139" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -15684,19 +15763,19 @@
         <v>508</v>
       </c>
       <c r="D14" s="140" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E14" s="132">
         <v>11</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G14" s="134" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H14" s="141" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -15707,10 +15786,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="134" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D15" s="135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E15" s="136">
         <v>12</v>
@@ -15719,10 +15798,10 @@
         <v>205</v>
       </c>
       <c r="G15" s="138" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H15" s="139" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -15733,20 +15812,20 @@
         <v>35</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D16" s="140" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E16" s="132">
         <v>13</v>
       </c>
       <c r="F16" s="133" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G16" s="134"/>
       <c r="H16" s="141" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18">
@@ -15757,20 +15836,20 @@
         <v>238</v>
       </c>
       <c r="C17" s="134" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D17" s="135" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E17" s="136">
         <v>14</v>
       </c>
       <c r="F17" s="137" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G17" s="138"/>
       <c r="H17" s="139" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18">
@@ -15781,10 +15860,10 @@
         <v>136</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D18" s="140" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E18" s="132">
         <v>15</v>
@@ -15793,10 +15872,10 @@
         <v>110</v>
       </c>
       <c r="G18" s="134" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H18" s="141" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18">
@@ -15807,10 +15886,10 @@
         <v>184</v>
       </c>
       <c r="C19" s="134" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E19" s="136">
         <v>16</v>
@@ -15819,10 +15898,10 @@
         <v>269</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H19" s="139" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">
@@ -15833,10 +15912,10 @@
         <v>60</v>
       </c>
       <c r="C20" s="138" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D20" s="143" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E20" s="132">
         <v>17</v>
@@ -15845,10 +15924,10 @@
         <v>151</v>
       </c>
       <c r="G20" s="134" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H20" s="141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
@@ -15859,10 +15938,10 @@
         <v>130</v>
       </c>
       <c r="C21" s="134" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>772</v>
+        <v>937</v>
       </c>
       <c r="E21" s="136">
         <v>18</v>
@@ -15871,10 +15950,10 @@
         <v>48</v>
       </c>
       <c r="G21" s="138" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H21" s="139" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
@@ -15882,13 +15961,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D22" s="140" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E22" s="132">
         <v>19</v>
@@ -15900,7 +15979,7 @@
         <v>485</v>
       </c>
       <c r="H22" s="141" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
@@ -15908,13 +15987,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="145" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C23" s="146" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D23" s="147" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E23" s="148">
         <v>20</v>
@@ -15926,7 +16005,7 @@
         <v>487</v>
       </c>
       <c r="H23" s="151" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
@@ -15940,327 +16019,356 @@
       <c r="H24" s="152"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="239" t="s">
-        <v>777</v>
-      </c>
-      <c r="B25" s="240"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="239" t="s">
-        <v>778</v>
-      </c>
-      <c r="F25" s="240"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="242"/>
+      <c r="A25" s="269" t="s">
+        <v>772</v>
+      </c>
+      <c r="B25" s="270"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="269" t="s">
+        <v>773</v>
+      </c>
+      <c r="F25" s="270"/>
+      <c r="G25" s="271"/>
+      <c r="H25" s="272"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="128" t="s">
-        <v>779</v>
-      </c>
-      <c r="B26" s="243" t="s">
-        <v>780</v>
-      </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="245"/>
+        <v>774</v>
+      </c>
+      <c r="B26" s="256" t="s">
+        <v>775</v>
+      </c>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
       <c r="E26" s="124" t="s">
-        <v>781</v>
-      </c>
-      <c r="F26" s="246" t="s">
-        <v>782</v>
-      </c>
-      <c r="G26" s="247"/>
-      <c r="H26" s="248" t="s">
-        <v>750</v>
+        <v>776</v>
+      </c>
+      <c r="F26" s="264" t="s">
+        <v>777</v>
+      </c>
+      <c r="G26" s="265"/>
+      <c r="H26" s="266" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="136" t="s">
-        <v>783</v>
-      </c>
-      <c r="B27" s="249" t="s">
-        <v>784</v>
-      </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251" t="s">
-        <v>622</v>
+        <v>778</v>
+      </c>
+      <c r="B27" s="259" t="s">
+        <v>779</v>
+      </c>
+      <c r="C27" s="260"/>
+      <c r="D27" s="262" t="s">
+        <v>621</v>
       </c>
       <c r="E27" s="128" t="s">
-        <v>785</v>
-      </c>
-      <c r="F27" s="243" t="s">
-        <v>786</v>
-      </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="252" t="s">
-        <v>752</v>
+        <v>780</v>
+      </c>
+      <c r="F27" s="256" t="s">
+        <v>781</v>
+      </c>
+      <c r="G27" s="257"/>
+      <c r="H27" s="263" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="128" t="s">
-        <v>787</v>
-      </c>
-      <c r="B28" s="243" t="s">
-        <v>788</v>
-      </c>
-      <c r="C28" s="244"/>
-      <c r="D28" s="245" t="s">
-        <v>623</v>
+        <v>782</v>
+      </c>
+      <c r="B28" s="256" t="s">
+        <v>783</v>
+      </c>
+      <c r="C28" s="257"/>
+      <c r="D28" s="258" t="s">
+        <v>622</v>
       </c>
       <c r="E28" s="136" t="s">
-        <v>789</v>
-      </c>
-      <c r="F28" s="249" t="s">
-        <v>790</v>
-      </c>
-      <c r="G28" s="250"/>
-      <c r="H28" s="253" t="s">
-        <v>754</v>
+        <v>784</v>
+      </c>
+      <c r="F28" s="259" t="s">
+        <v>785</v>
+      </c>
+      <c r="G28" s="260"/>
+      <c r="H28" s="261" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="136" t="s">
-        <v>791</v>
-      </c>
-      <c r="B29" s="249" t="s">
-        <v>792</v>
-      </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="251" t="s">
-        <v>624</v>
+        <v>786</v>
+      </c>
+      <c r="B29" s="259" t="s">
+        <v>787</v>
+      </c>
+      <c r="C29" s="260"/>
+      <c r="D29" s="262" t="s">
+        <v>623</v>
       </c>
       <c r="E29" s="128" t="s">
-        <v>793</v>
-      </c>
-      <c r="F29" s="243" t="s">
-        <v>794</v>
-      </c>
-      <c r="G29" s="244"/>
-      <c r="H29" s="252" t="s">
-        <v>756</v>
+        <v>788</v>
+      </c>
+      <c r="F29" s="256" t="s">
+        <v>789</v>
+      </c>
+      <c r="G29" s="257"/>
+      <c r="H29" s="263" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="128" t="s">
-        <v>795</v>
-      </c>
-      <c r="B30" s="243" t="s">
-        <v>796</v>
-      </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="245" t="s">
-        <v>625</v>
+        <v>790</v>
+      </c>
+      <c r="B30" s="256" t="s">
+        <v>791</v>
+      </c>
+      <c r="C30" s="257"/>
+      <c r="D30" s="258" t="s">
+        <v>624</v>
       </c>
       <c r="E30" s="136" t="s">
-        <v>797</v>
-      </c>
-      <c r="F30" s="249" t="s">
-        <v>798</v>
-      </c>
-      <c r="G30" s="250"/>
-      <c r="H30" s="253" t="s">
-        <v>758</v>
+        <v>792</v>
+      </c>
+      <c r="F30" s="259" t="s">
+        <v>793</v>
+      </c>
+      <c r="G30" s="260"/>
+      <c r="H30" s="261" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="136" t="s">
-        <v>799</v>
-      </c>
-      <c r="B31" s="249" t="s">
-        <v>800</v>
-      </c>
-      <c r="C31" s="250"/>
-      <c r="D31" s="251" t="s">
-        <v>626</v>
+        <v>794</v>
+      </c>
+      <c r="B31" s="259" t="s">
+        <v>795</v>
+      </c>
+      <c r="C31" s="260"/>
+      <c r="D31" s="262" t="s">
+        <v>625</v>
       </c>
       <c r="E31" s="128" t="s">
-        <v>801</v>
-      </c>
-      <c r="F31" s="243" t="s">
-        <v>802</v>
-      </c>
-      <c r="G31" s="244"/>
-      <c r="H31" s="252" t="s">
+        <v>796</v>
+      </c>
+      <c r="F31" s="256" t="s">
+        <v>797</v>
+      </c>
+      <c r="G31" s="257"/>
+      <c r="H31" s="263" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="128" t="s">
-        <v>803</v>
-      </c>
-      <c r="B32" s="243" t="s">
-        <v>804</v>
-      </c>
-      <c r="C32" s="244"/>
-      <c r="D32" s="245" t="s">
-        <v>627</v>
+        <v>798</v>
+      </c>
+      <c r="B32" s="256" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258" t="s">
+        <v>626</v>
       </c>
       <c r="E32" s="136"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="253" t="s">
+      <c r="F32" s="259"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="261" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="136" t="s">
-        <v>805</v>
-      </c>
-      <c r="B33" s="249" t="s">
-        <v>806</v>
-      </c>
-      <c r="C33" s="250"/>
-      <c r="D33" s="251" t="s">
-        <v>621</v>
+        <v>800</v>
+      </c>
+      <c r="B33" s="259" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" s="260"/>
+      <c r="D33" s="262" t="s">
+        <v>620</v>
       </c>
       <c r="E33" s="128"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="252" t="s">
-        <v>750</v>
+      <c r="F33" s="256"/>
+      <c r="G33" s="257"/>
+      <c r="H33" s="263" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="128" t="s">
-        <v>807</v>
-      </c>
-      <c r="B34" s="243" t="s">
-        <v>808</v>
-      </c>
-      <c r="C34" s="244"/>
-      <c r="D34" s="245" t="s">
-        <v>622</v>
+        <v>802</v>
+      </c>
+      <c r="B34" s="256" t="s">
+        <v>803</v>
+      </c>
+      <c r="C34" s="257"/>
+      <c r="D34" s="258" t="s">
+        <v>621</v>
       </c>
       <c r="E34" s="136"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="253" t="s">
-        <v>752</v>
+      <c r="F34" s="259"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="261" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="136" t="s">
-        <v>809</v>
-      </c>
-      <c r="B35" s="249" t="s">
-        <v>810</v>
-      </c>
-      <c r="C35" s="250"/>
-      <c r="D35" s="251" t="s">
-        <v>623</v>
+        <v>804</v>
+      </c>
+      <c r="B35" s="259" t="s">
+        <v>805</v>
+      </c>
+      <c r="C35" s="260"/>
+      <c r="D35" s="262" t="s">
+        <v>622</v>
       </c>
       <c r="E35" s="128"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="252" t="s">
-        <v>754</v>
+      <c r="F35" s="256"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="263" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="128" t="s">
-        <v>811</v>
-      </c>
-      <c r="B36" s="243" t="s">
-        <v>812</v>
-      </c>
-      <c r="C36" s="244"/>
-      <c r="D36" s="245" t="s">
-        <v>624</v>
+        <v>806</v>
+      </c>
+      <c r="B36" s="256" t="s">
+        <v>807</v>
+      </c>
+      <c r="C36" s="257"/>
+      <c r="D36" s="258" t="s">
+        <v>623</v>
       </c>
       <c r="E36" s="136"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="253" t="s">
-        <v>756</v>
+      <c r="F36" s="259"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="261" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="136" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37" s="249" t="s">
-        <v>814</v>
-      </c>
-      <c r="C37" s="250"/>
-      <c r="D37" s="251" t="s">
-        <v>625</v>
+        <v>808</v>
+      </c>
+      <c r="B37" s="259" t="s">
+        <v>809</v>
+      </c>
+      <c r="C37" s="260"/>
+      <c r="D37" s="262" t="s">
+        <v>624</v>
       </c>
       <c r="E37" s="128"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="252" t="s">
-        <v>758</v>
+      <c r="F37" s="256"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="263" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="128" t="s">
-        <v>815</v>
-      </c>
-      <c r="B38" s="243" t="s">
-        <v>816</v>
-      </c>
-      <c r="C38" s="244"/>
-      <c r="D38" s="245" t="s">
-        <v>626</v>
+        <v>810</v>
+      </c>
+      <c r="B38" s="256" t="s">
+        <v>811</v>
+      </c>
+      <c r="C38" s="257"/>
+      <c r="D38" s="258" t="s">
+        <v>625</v>
       </c>
       <c r="E38" s="136"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="250"/>
-      <c r="H38" s="253" t="s">
+      <c r="F38" s="259"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="261" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="136" t="s">
-        <v>817</v>
-      </c>
-      <c r="B39" s="249" t="s">
-        <v>818</v>
-      </c>
-      <c r="C39" s="250"/>
-      <c r="D39" s="251" t="s">
-        <v>627</v>
+        <v>812</v>
+      </c>
+      <c r="B39" s="259" t="s">
+        <v>813</v>
+      </c>
+      <c r="C39" s="260"/>
+      <c r="D39" s="262" t="s">
+        <v>626</v>
       </c>
       <c r="E39" s="128"/>
-      <c r="F39" s="243"/>
-      <c r="G39" s="244"/>
-      <c r="H39" s="252" t="s">
+      <c r="F39" s="256"/>
+      <c r="G39" s="257"/>
+      <c r="H39" s="263" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="128" t="s">
-        <v>819</v>
-      </c>
-      <c r="B40" s="243" t="s">
-        <v>818</v>
-      </c>
-      <c r="C40" s="244"/>
-      <c r="D40" s="245" t="s">
-        <v>627</v>
+        <v>814</v>
+      </c>
+      <c r="B40" s="256" t="s">
+        <v>813</v>
+      </c>
+      <c r="C40" s="257"/>
+      <c r="D40" s="258" t="s">
+        <v>626</v>
       </c>
       <c r="E40" s="136"/>
-      <c r="F40" s="249"/>
-      <c r="G40" s="250"/>
-      <c r="H40" s="253"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="260"/>
+      <c r="H40" s="261"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="148" t="s">
-        <v>820</v>
-      </c>
-      <c r="B41" s="254" t="s">
-        <v>818</v>
-      </c>
-      <c r="C41" s="255"/>
-      <c r="D41" s="256" t="s">
-        <v>627</v>
+        <v>815</v>
+      </c>
+      <c r="B41" s="250" t="s">
+        <v>813</v>
+      </c>
+      <c r="C41" s="251"/>
+      <c r="D41" s="252" t="s">
+        <v>626</v>
       </c>
       <c r="E41" s="153"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="258"/>
-      <c r="H41" s="259"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -16269,35 +16377,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
+++ b/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="944">
   <si>
     <t>AWACS</t>
   </si>
@@ -2886,6 +2886,15 @@
   </si>
   <si>
     <t>VHG</t>
+  </si>
+  <si>
+    <t>Gazipasa?</t>
+  </si>
+  <si>
+    <t>Akratori</t>
+  </si>
+  <si>
+    <t>Sanliurfa</t>
   </si>
 </sst>
 </file>
@@ -4403,6 +4412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4643,7 +4653,6 @@
     <xf numFmtId="0" fontId="25" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4772,6 +4781,110 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8604250" y="1841500"/>
+          <a:ext cx="5638800" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8658225" y="857250"/>
+          <a:ext cx="5638800" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5283,11 +5396,11 @@
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="S3" s="210" t="s">
+      <c r="S3" s="211" t="s">
         <v>282</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
       <c r="W3" s="7" t="s">
         <v>2</v>
       </c>
@@ -5298,13 +5411,13 @@
         <v>479</v>
       </c>
       <c r="Z3" s="120"/>
-      <c r="AD3" s="212" t="s">
+      <c r="AD3" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="213"/>
-      <c r="AG3" s="213"/>
-      <c r="AH3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="215"/>
     </row>
     <row r="4" spans="2:34" ht="15.75">
       <c r="B4" s="57" t="s">
@@ -5350,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="P4" s="52"/>
-      <c r="S4" s="215" t="s">
+      <c r="S4" s="216" t="s">
         <v>636</v>
       </c>
       <c r="T4" s="97" t="s">
@@ -5421,7 +5534,7 @@
         <v>22</v>
       </c>
       <c r="P5" s="52"/>
-      <c r="S5" s="216"/>
+      <c r="S5" s="217"/>
       <c r="T5" s="31" t="s">
         <v>605</v>
       </c>
@@ -5438,7 +5551,7 @@
         <v>487</v>
       </c>
       <c r="Z5" s="120"/>
-      <c r="AB5" s="289"/>
+      <c r="AB5" s="209"/>
       <c r="AD5" s="7" t="s">
         <v>492</v>
       </c>
@@ -5501,7 +5614,7 @@
         <v>654</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="217"/>
+      <c r="S6" s="218"/>
       <c r="T6" s="99" t="s">
         <v>638</v>
       </c>
@@ -5583,7 +5696,7 @@
         <v>284</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="215" t="s">
+      <c r="S7" s="216" t="s">
         <v>642</v>
       </c>
       <c r="T7" s="97" t="s">
@@ -5664,7 +5777,7 @@
         <v>285</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="216"/>
+      <c r="S8" s="217"/>
       <c r="T8" s="31" t="s">
         <v>605</v>
       </c>
@@ -5733,7 +5846,7 @@
         <v>286</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="217"/>
+      <c r="S9" s="218"/>
       <c r="T9" s="99" t="s">
         <v>638</v>
       </c>
@@ -5878,7 +5991,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="219" t="s">
+      <c r="S11" s="220" t="s">
         <v>643</v>
       </c>
       <c r="T11" s="102" t="s">
@@ -5954,7 +6067,7 @@
       <c r="P12" s="93"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="220"/>
+      <c r="S12" s="221"/>
       <c r="T12" s="96" t="s">
         <v>605</v>
       </c>
@@ -6025,7 +6138,7 @@
       <c r="P13" s="93"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="221"/>
+      <c r="S13" s="222"/>
       <c r="T13" s="104" t="s">
         <v>638</v>
       </c>
@@ -6050,11 +6163,11 @@
       <c r="AC13" t="s">
         <v>34</v>
       </c>
-      <c r="AE13" s="212" t="s">
+      <c r="AE13" s="213" t="s">
         <v>628</v>
       </c>
-      <c r="AF13" s="213"/>
-      <c r="AG13" s="214"/>
+      <c r="AF13" s="214"/>
+      <c r="AG13" s="215"/>
     </row>
     <row r="14" spans="2:34" ht="15.75">
       <c r="B14" s="57" t="s">
@@ -6102,7 +6215,7 @@
         <v>281</v>
       </c>
       <c r="R14" s="3"/>
-      <c r="S14" s="215" t="s">
+      <c r="S14" s="216" t="s">
         <v>646</v>
       </c>
       <c r="T14" s="102" t="s">
@@ -6169,22 +6282,22 @@
         <v>294</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="216"/>
+      <c r="S15" s="217"/>
       <c r="T15" s="96" t="s">
         <v>605</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="W15" s="211" t="s">
+      <c r="W15" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="X15" s="211"/>
-      <c r="Y15" s="211"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="211"/>
-      <c r="AC15" s="211"/>
+      <c r="X15" s="212"/>
+      <c r="Y15" s="212"/>
+      <c r="Z15" s="212"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="212"/>
+      <c r="AC15" s="212"/>
       <c r="AE15" s="7" t="s">
         <v>620</v>
       </c>
@@ -6240,7 +6353,7 @@
         <v>293</v>
       </c>
       <c r="R16" s="3"/>
-      <c r="S16" s="217"/>
+      <c r="S16" s="218"/>
       <c r="T16" s="104" t="s">
         <v>638</v>
       </c>
@@ -6577,11 +6690,11 @@
         <v>302</v>
       </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="211" t="s">
+      <c r="S20" s="212" t="s">
         <v>281</v>
       </c>
-      <c r="T20" s="211"/>
-      <c r="U20" s="211"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
       <c r="V20" s="3"/>
       <c r="W20" s="39" t="s">
         <v>907</v>
@@ -7308,34 +7421,34 @@
       </c>
     </row>
     <row r="32" spans="2:34">
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="213" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="214"/>
-      <c r="J32" s="211" t="s">
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="215"/>
+      <c r="J32" s="212" t="s">
         <v>300</v>
       </c>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="211"/>
-      <c r="U32" s="211" t="s">
+      <c r="K32" s="212"/>
+      <c r="L32" s="212"/>
+      <c r="M32" s="212"/>
+      <c r="N32" s="212"/>
+      <c r="O32" s="212"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="212"/>
+      <c r="U32" s="212" t="s">
         <v>283</v>
       </c>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
+      <c r="V32" s="212"/>
+      <c r="W32" s="212"/>
+      <c r="X32" s="212"/>
+      <c r="Y32" s="212"/>
+      <c r="Z32" s="212"/>
+      <c r="AA32" s="212"/>
     </row>
     <row r="33" spans="2:37">
       <c r="B33" s="51" t="s">
@@ -7618,7 +7731,7 @@
       <c r="AA36" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="AE36" s="209" t="s">
+      <c r="AE36" s="210" t="s">
         <v>694</v>
       </c>
       <c r="AF36" s="7" t="s">
@@ -7704,7 +7817,7 @@
       <c r="AA37" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="AE37" s="209"/>
+      <c r="AE37" s="210"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
@@ -7776,7 +7889,7 @@
       <c r="AA38" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="AE38" s="209"/>
+      <c r="AE38" s="210"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
@@ -7833,7 +7946,7 @@
       <c r="AA39" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="AE39" s="209"/>
+      <c r="AE39" s="210"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
@@ -7848,16 +7961,16 @@
       <c r="F40" t="s">
         <v>566</v>
       </c>
-      <c r="J40" s="218" t="s">
+      <c r="J40" s="219" t="s">
         <v>475</v>
       </c>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-      <c r="O40" s="218"/>
-      <c r="P40" s="218"/>
-      <c r="Q40" s="218"/>
+      <c r="K40" s="219"/>
+      <c r="L40" s="219"/>
+      <c r="M40" s="219"/>
+      <c r="N40" s="219"/>
+      <c r="O40" s="219"/>
+      <c r="P40" s="219"/>
+      <c r="Q40" s="219"/>
       <c r="T40">
         <v>7</v>
       </c>
@@ -8326,34 +8439,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="274" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="274"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
+      <c r="A2" s="275"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="234" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="235" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="237"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="54">
@@ -8710,14 +8823,14 @@
       <c r="F21" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="N21" s="275" t="s">
+      <c r="N21" s="276" t="s">
         <v>821</v>
       </c>
-      <c r="O21" s="275"/>
-      <c r="P21" s="275"/>
-      <c r="Q21" s="275"/>
-      <c r="R21" s="275"/>
-      <c r="S21" s="275"/>
+      <c r="O21" s="276"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="276"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="276"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" thickBot="1">
       <c r="A22" s="54">
@@ -8738,12 +8851,12 @@
       <c r="F22" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="O22" s="276" t="s">
+      <c r="O22" s="277" t="s">
         <v>363</v>
       </c>
-      <c r="P22" s="276"/>
-      <c r="Q22" s="276"/>
-      <c r="R22" s="276"/>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="277"/>
+      <c r="R22" s="277"/>
     </row>
     <row r="23" spans="1:19" ht="19.5" thickBot="1">
       <c r="A23" s="54">
@@ -9000,22 +9113,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="276" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="277" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="B3" s="43"/>
@@ -10769,40 +10882,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="284" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="285"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="286"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="286"/>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="288"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="289"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="278" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="277" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="278" t="s">
         <v>841</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="177">
@@ -11121,18 +11234,18 @@
       <c r="H21" s="169"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="280" t="s">
+      <c r="A22" s="281" t="s">
         <v>842</v>
       </c>
-      <c r="B22" s="281"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="280" t="s">
+      <c r="B22" s="282"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="281" t="s">
         <v>843</v>
       </c>
-      <c r="F22" s="281"/>
-      <c r="G22" s="281"/>
-      <c r="H22" s="282"/>
+      <c r="F22" s="282"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="283"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="160">
@@ -11523,40 +11636,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>892</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="224"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="225"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="227"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="229" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229" t="s">
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230" t="s">
         <v>607</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="231"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="77">
@@ -11653,6 +11766,9 @@
       <c r="H7" s="79" t="s">
         <v>643</v>
       </c>
+      <c r="I7" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" thickBot="1">
       <c r="A8" s="77">
@@ -12026,6 +12142,9 @@
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
+      <c r="I21" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" thickBot="1">
       <c r="A22" s="77">
@@ -12046,6 +12165,9 @@
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
+      <c r="I22" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" thickBot="1">
       <c r="A23" s="77">
@@ -12610,14 +12732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="233"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="234"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="17"/>
@@ -12628,16 +12750,16 @@
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="234" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="235" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="237"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20">
@@ -12907,28 +13029,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="238" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="239"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="240"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="27"/>
@@ -13203,16 +13325,16 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="239"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="240"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="32"/>
@@ -13502,16 +13624,16 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="239"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="240"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="27"/>
@@ -13824,12 +13946,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="242" t="s">
         <v>890</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="28.5">
@@ -14037,28 +14159,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="243" t="s">
         <v>889</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="239"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="240"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="33" t="s">
@@ -14349,12 +14471,12 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="238" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="240"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -14522,12 +14644,12 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="238" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="240"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -14712,7 +14834,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -14731,40 +14853,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>888</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="233"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="234"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="243"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="245"/>
+      <c r="A2" s="244"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="246"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="247" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="246" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="247" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="250"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="73">
@@ -15432,6 +15554,7 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15439,8 +15562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -15457,40 +15580,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>887</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="268"/>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
+      <c r="A2" s="269"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="269" t="s">
+      <c r="B3" s="271"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="270"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="272"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="273"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="124">
@@ -16019,36 +16142,36 @@
       <c r="H24" s="152"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="269" t="s">
+      <c r="A25" s="270" t="s">
         <v>772</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="269" t="s">
+      <c r="B25" s="271"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="270" t="s">
         <v>773</v>
       </c>
-      <c r="F25" s="270"/>
-      <c r="G25" s="271"/>
-      <c r="H25" s="272"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="273"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="128" t="s">
         <v>774</v>
       </c>
-      <c r="B26" s="256" t="s">
+      <c r="B26" s="257" t="s">
         <v>775</v>
       </c>
-      <c r="C26" s="257"/>
-      <c r="D26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
       <c r="E26" s="124" t="s">
         <v>776</v>
       </c>
-      <c r="F26" s="264" t="s">
+      <c r="F26" s="265" t="s">
         <v>777</v>
       </c>
-      <c r="G26" s="265"/>
-      <c r="H26" s="266" t="s">
+      <c r="G26" s="266"/>
+      <c r="H26" s="267" t="s">
         <v>747</v>
       </c>
     </row>
@@ -16056,21 +16179,21 @@
       <c r="A27" s="136" t="s">
         <v>778</v>
       </c>
-      <c r="B27" s="259" t="s">
+      <c r="B27" s="260" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="260"/>
-      <c r="D27" s="262" t="s">
+      <c r="C27" s="261"/>
+      <c r="D27" s="263" t="s">
         <v>621</v>
       </c>
       <c r="E27" s="128" t="s">
         <v>780</v>
       </c>
-      <c r="F27" s="256" t="s">
+      <c r="F27" s="257" t="s">
         <v>781</v>
       </c>
-      <c r="G27" s="257"/>
-      <c r="H27" s="263" t="s">
+      <c r="G27" s="258"/>
+      <c r="H27" s="264" t="s">
         <v>749</v>
       </c>
     </row>
@@ -16078,21 +16201,21 @@
       <c r="A28" s="128" t="s">
         <v>782</v>
       </c>
-      <c r="B28" s="256" t="s">
+      <c r="B28" s="257" t="s">
         <v>783</v>
       </c>
-      <c r="C28" s="257"/>
-      <c r="D28" s="258" t="s">
+      <c r="C28" s="258"/>
+      <c r="D28" s="259" t="s">
         <v>622</v>
       </c>
       <c r="E28" s="136" t="s">
         <v>784</v>
       </c>
-      <c r="F28" s="259" t="s">
+      <c r="F28" s="260" t="s">
         <v>785</v>
       </c>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261" t="s">
+      <c r="G28" s="261"/>
+      <c r="H28" s="262" t="s">
         <v>751</v>
       </c>
     </row>
@@ -16100,21 +16223,21 @@
       <c r="A29" s="136" t="s">
         <v>786</v>
       </c>
-      <c r="B29" s="259" t="s">
+      <c r="B29" s="260" t="s">
         <v>787</v>
       </c>
-      <c r="C29" s="260"/>
-      <c r="D29" s="262" t="s">
+      <c r="C29" s="261"/>
+      <c r="D29" s="263" t="s">
         <v>623</v>
       </c>
       <c r="E29" s="128" t="s">
         <v>788</v>
       </c>
-      <c r="F29" s="256" t="s">
+      <c r="F29" s="257" t="s">
         <v>789</v>
       </c>
-      <c r="G29" s="257"/>
-      <c r="H29" s="263" t="s">
+      <c r="G29" s="258"/>
+      <c r="H29" s="264" t="s">
         <v>753</v>
       </c>
     </row>
@@ -16122,21 +16245,21 @@
       <c r="A30" s="128" t="s">
         <v>790</v>
       </c>
-      <c r="B30" s="256" t="s">
+      <c r="B30" s="257" t="s">
         <v>791</v>
       </c>
-      <c r="C30" s="257"/>
-      <c r="D30" s="258" t="s">
+      <c r="C30" s="258"/>
+      <c r="D30" s="259" t="s">
         <v>624</v>
       </c>
       <c r="E30" s="136" t="s">
         <v>792</v>
       </c>
-      <c r="F30" s="259" t="s">
+      <c r="F30" s="260" t="s">
         <v>793</v>
       </c>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261" t="s">
+      <c r="G30" s="261"/>
+      <c r="H30" s="262" t="s">
         <v>755</v>
       </c>
     </row>
@@ -16144,21 +16267,21 @@
       <c r="A31" s="136" t="s">
         <v>794</v>
       </c>
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="260" t="s">
         <v>795</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="262" t="s">
+      <c r="C31" s="261"/>
+      <c r="D31" s="263" t="s">
         <v>625</v>
       </c>
       <c r="E31" s="128" t="s">
         <v>796</v>
       </c>
-      <c r="F31" s="256" t="s">
+      <c r="F31" s="257" t="s">
         <v>797</v>
       </c>
-      <c r="G31" s="257"/>
-      <c r="H31" s="263" t="s">
+      <c r="G31" s="258"/>
+      <c r="H31" s="264" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16166,17 +16289,17 @@
       <c r="A32" s="128" t="s">
         <v>798</v>
       </c>
-      <c r="B32" s="256" t="s">
+      <c r="B32" s="257" t="s">
         <v>799</v>
       </c>
-      <c r="C32" s="257"/>
-      <c r="D32" s="258" t="s">
+      <c r="C32" s="258"/>
+      <c r="D32" s="259" t="s">
         <v>626</v>
       </c>
       <c r="E32" s="136"/>
-      <c r="F32" s="259"/>
-      <c r="G32" s="260"/>
-      <c r="H32" s="261" t="s">
+      <c r="F32" s="260"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262" t="s">
         <v>495</v>
       </c>
     </row>
@@ -16184,17 +16307,17 @@
       <c r="A33" s="136" t="s">
         <v>800</v>
       </c>
-      <c r="B33" s="259" t="s">
+      <c r="B33" s="260" t="s">
         <v>801</v>
       </c>
-      <c r="C33" s="260"/>
-      <c r="D33" s="262" t="s">
+      <c r="C33" s="261"/>
+      <c r="D33" s="263" t="s">
         <v>620</v>
       </c>
       <c r="E33" s="128"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="263" t="s">
+      <c r="F33" s="257"/>
+      <c r="G33" s="258"/>
+      <c r="H33" s="264" t="s">
         <v>747</v>
       </c>
     </row>
@@ -16202,17 +16325,17 @@
       <c r="A34" s="128" t="s">
         <v>802</v>
       </c>
-      <c r="B34" s="256" t="s">
+      <c r="B34" s="257" t="s">
         <v>803</v>
       </c>
-      <c r="C34" s="257"/>
-      <c r="D34" s="258" t="s">
+      <c r="C34" s="258"/>
+      <c r="D34" s="259" t="s">
         <v>621</v>
       </c>
       <c r="E34" s="136"/>
-      <c r="F34" s="259"/>
-      <c r="G34" s="260"/>
-      <c r="H34" s="261" t="s">
+      <c r="F34" s="260"/>
+      <c r="G34" s="261"/>
+      <c r="H34" s="262" t="s">
         <v>749</v>
       </c>
     </row>
@@ -16220,17 +16343,17 @@
       <c r="A35" s="136" t="s">
         <v>804</v>
       </c>
-      <c r="B35" s="259" t="s">
+      <c r="B35" s="260" t="s">
         <v>805</v>
       </c>
-      <c r="C35" s="260"/>
-      <c r="D35" s="262" t="s">
+      <c r="C35" s="261"/>
+      <c r="D35" s="263" t="s">
         <v>622</v>
       </c>
       <c r="E35" s="128"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="257"/>
-      <c r="H35" s="263" t="s">
+      <c r="F35" s="257"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="264" t="s">
         <v>751</v>
       </c>
     </row>
@@ -16238,17 +16361,17 @@
       <c r="A36" s="128" t="s">
         <v>806</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="257" t="s">
         <v>807</v>
       </c>
-      <c r="C36" s="257"/>
-      <c r="D36" s="258" t="s">
+      <c r="C36" s="258"/>
+      <c r="D36" s="259" t="s">
         <v>623</v>
       </c>
       <c r="E36" s="136"/>
-      <c r="F36" s="259"/>
-      <c r="G36" s="260"/>
-      <c r="H36" s="261" t="s">
+      <c r="F36" s="260"/>
+      <c r="G36" s="261"/>
+      <c r="H36" s="262" t="s">
         <v>753</v>
       </c>
     </row>
@@ -16256,17 +16379,17 @@
       <c r="A37" s="136" t="s">
         <v>808</v>
       </c>
-      <c r="B37" s="259" t="s">
+      <c r="B37" s="260" t="s">
         <v>809</v>
       </c>
-      <c r="C37" s="260"/>
-      <c r="D37" s="262" t="s">
+      <c r="C37" s="261"/>
+      <c r="D37" s="263" t="s">
         <v>624</v>
       </c>
       <c r="E37" s="128"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="257"/>
-      <c r="H37" s="263" t="s">
+      <c r="F37" s="257"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="264" t="s">
         <v>755</v>
       </c>
     </row>
@@ -16274,17 +16397,17 @@
       <c r="A38" s="128" t="s">
         <v>810</v>
       </c>
-      <c r="B38" s="256" t="s">
+      <c r="B38" s="257" t="s">
         <v>811</v>
       </c>
-      <c r="C38" s="257"/>
-      <c r="D38" s="258" t="s">
+      <c r="C38" s="258"/>
+      <c r="D38" s="259" t="s">
         <v>625</v>
       </c>
       <c r="E38" s="136"/>
-      <c r="F38" s="259"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="261" t="s">
+      <c r="F38" s="260"/>
+      <c r="G38" s="261"/>
+      <c r="H38" s="262" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16292,17 +16415,17 @@
       <c r="A39" s="136" t="s">
         <v>812</v>
       </c>
-      <c r="B39" s="259" t="s">
+      <c r="B39" s="260" t="s">
         <v>813</v>
       </c>
-      <c r="C39" s="260"/>
-      <c r="D39" s="262" t="s">
+      <c r="C39" s="261"/>
+      <c r="D39" s="263" t="s">
         <v>626</v>
       </c>
       <c r="E39" s="128"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="257"/>
-      <c r="H39" s="263" t="s">
+      <c r="F39" s="257"/>
+      <c r="G39" s="258"/>
+      <c r="H39" s="264" t="s">
         <v>495</v>
       </c>
     </row>
@@ -16310,33 +16433,33 @@
       <c r="A40" s="128" t="s">
         <v>814</v>
       </c>
-      <c r="B40" s="256" t="s">
+      <c r="B40" s="257" t="s">
         <v>813</v>
       </c>
-      <c r="C40" s="257"/>
-      <c r="D40" s="258" t="s">
+      <c r="C40" s="258"/>
+      <c r="D40" s="259" t="s">
         <v>626</v>
       </c>
       <c r="E40" s="136"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="260"/>
-      <c r="H40" s="261"/>
+      <c r="F40" s="260"/>
+      <c r="G40" s="261"/>
+      <c r="H40" s="262"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="148" t="s">
         <v>815</v>
       </c>
-      <c r="B41" s="250" t="s">
+      <c r="B41" s="251" t="s">
         <v>813</v>
       </c>
-      <c r="C41" s="251"/>
-      <c r="D41" s="252" t="s">
+      <c r="C41" s="252"/>
+      <c r="D41" s="253" t="s">
         <v>626</v>
       </c>
       <c r="E41" s="153"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="255"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="255"/>
+      <c r="H41" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -16380,5 +16503,6 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
+++ b/COMMUNICATION/TRMT Frequency and Callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ATC" sheetId="17" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="1012">
   <si>
     <t>AWACS</t>
   </si>
@@ -2433,9 +2433,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>COLT</t>
-  </si>
-  <si>
     <t>CVN-72 TWR</t>
   </si>
   <si>
@@ -2491,9 +2488,6 @@
   </si>
   <si>
     <t>ORANGE 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLT </t>
   </si>
   <si>
     <t>CVN-73</t>
@@ -3091,6 +3085,24 @@
   </si>
   <si>
     <t>38.20</t>
+  </si>
+  <si>
+    <t>STING</t>
+  </si>
+  <si>
+    <t>JURY</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>HAMMERHEAD</t>
+  </si>
+  <si>
+    <t>PALEHORSE</t>
+  </si>
+  <si>
+    <t>GAZIENTIEP</t>
   </si>
 </sst>
 </file>
@@ -4396,7 +4408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4942,6 +4954,60 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4951,15 +5017,6 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4969,35 +5026,35 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5029,36 +5086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5161,86 +5188,89 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="23" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5287,24 +5317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6408,30 +6421,30 @@
     </row>
     <row r="22" spans="4:21" ht="15.75" thickBot="1">
       <c r="D22" s="167"/>
-      <c r="E22" s="246" t="s">
-        <v>924</v>
-      </c>
-      <c r="F22" s="247"/>
-      <c r="G22" s="248"/>
+      <c r="E22" s="244" t="s">
+        <v>922</v>
+      </c>
+      <c r="F22" s="245"/>
+      <c r="G22" s="246"/>
       <c r="H22" s="167"/>
       <c r="K22" s="167"/>
-      <c r="L22" s="243" t="s">
+      <c r="L22" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="M22" s="244"/>
-      <c r="N22" s="245"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="243"/>
       <c r="O22" s="167"/>
       <c r="Q22" s="167"/>
-      <c r="R22" s="233" t="s">
+      <c r="R22" s="251" t="s">
         <v>626</v>
       </c>
-      <c r="S22" s="234"/>
-      <c r="T22" s="235"/>
+      <c r="S22" s="252"/>
+      <c r="T22" s="253"/>
       <c r="U22" s="167"/>
     </row>
     <row r="23" spans="4:21" ht="16.5" thickBot="1">
       <c r="D23" s="167"/>
-      <c r="E23" s="249" t="s">
+      <c r="E23" s="247" t="s">
         <v>634</v>
       </c>
       <c r="F23" s="168" t="s">
@@ -6446,7 +6459,7 @@
         <v>290</v>
       </c>
       <c r="M23" s="185" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N23" s="186" t="s">
         <v>636</v>
@@ -6466,7 +6479,7 @@
     </row>
     <row r="24" spans="4:21" ht="15.75">
       <c r="D24" s="167"/>
-      <c r="E24" s="250"/>
+      <c r="E24" s="248"/>
       <c r="F24" s="170" t="s">
         <v>603</v>
       </c>
@@ -6482,7 +6495,7 @@
         <v>212</v>
       </c>
       <c r="N24" s="183" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="O24" s="167"/>
       <c r="Q24" s="167"/>
@@ -6499,7 +6512,7 @@
     </row>
     <row r="25" spans="4:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="D25" s="167"/>
-      <c r="E25" s="251"/>
+      <c r="E25" s="249"/>
       <c r="F25" s="172" t="s">
         <v>636</v>
       </c>
@@ -6509,13 +6522,13 @@
       <c r="H25" s="167"/>
       <c r="K25" s="167"/>
       <c r="L25" s="178" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M25" s="179" t="s">
         <v>125</v>
       </c>
       <c r="N25" s="180" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O25" s="167"/>
       <c r="Q25" s="167"/>
@@ -6532,7 +6545,7 @@
     </row>
     <row r="26" spans="4:21" ht="15.75">
       <c r="D26" s="167"/>
-      <c r="E26" s="236" t="s">
+      <c r="E26" s="250" t="s">
         <v>640</v>
       </c>
       <c r="F26" s="168" t="s">
@@ -6561,7 +6574,7 @@
     </row>
     <row r="27" spans="4:21" ht="15.75">
       <c r="D27" s="167"/>
-      <c r="E27" s="237"/>
+      <c r="E27" s="239"/>
       <c r="F27" s="170" t="s">
         <v>603</v>
       </c>
@@ -6583,7 +6596,7 @@
     </row>
     <row r="28" spans="4:21" ht="16.5" thickBot="1">
       <c r="D28" s="167"/>
-      <c r="E28" s="238"/>
+      <c r="E28" s="240"/>
       <c r="F28" s="172" t="s">
         <v>636</v>
       </c>
@@ -6605,14 +6618,14 @@
     </row>
     <row r="29" spans="4:21" ht="15.75">
       <c r="D29" s="167"/>
-      <c r="E29" s="236" t="s">
-        <v>906</v>
+      <c r="E29" s="250" t="s">
+        <v>904</v>
       </c>
       <c r="F29" s="168" t="s">
         <v>635</v>
       </c>
       <c r="G29" s="169" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H29" s="167"/>
       <c r="Q29" s="167"/>
@@ -6629,12 +6642,12 @@
     </row>
     <row r="30" spans="4:21" ht="15.75">
       <c r="D30" s="167"/>
-      <c r="E30" s="237"/>
+      <c r="E30" s="239"/>
       <c r="F30" s="170" t="s">
         <v>603</v>
       </c>
       <c r="G30" s="171" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H30" s="167"/>
       <c r="Q30" s="167"/>
@@ -6651,12 +6664,12 @@
     </row>
     <row r="31" spans="4:21" ht="16.5" thickBot="1">
       <c r="D31" s="167"/>
-      <c r="E31" s="238"/>
+      <c r="E31" s="240"/>
       <c r="F31" s="172" t="s">
         <v>636</v>
       </c>
       <c r="G31" s="173" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H31" s="167"/>
       <c r="Q31" s="167"/>
@@ -6673,11 +6686,11 @@
     </row>
     <row r="32" spans="4:21" ht="15.75" thickBot="1">
       <c r="D32" s="167"/>
-      <c r="E32" s="239" t="s">
-        <v>925</v>
-      </c>
-      <c r="F32" s="240"/>
-      <c r="G32" s="241"/>
+      <c r="E32" s="254" t="s">
+        <v>923</v>
+      </c>
+      <c r="F32" s="255"/>
+      <c r="G32" s="256"/>
       <c r="H32" s="167"/>
       <c r="Q32" s="167"/>
       <c r="R32" s="176" t="s">
@@ -6693,14 +6706,14 @@
     </row>
     <row r="33" spans="4:21" ht="15.75">
       <c r="D33" s="167"/>
-      <c r="E33" s="242" t="s">
-        <v>922</v>
+      <c r="E33" s="238" t="s">
+        <v>920</v>
       </c>
       <c r="F33" s="168" t="s">
         <v>635</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H33" s="167"/>
       <c r="Q33" s="167"/>
@@ -6717,12 +6730,12 @@
     </row>
     <row r="34" spans="4:21" ht="15.75">
       <c r="D34" s="167"/>
-      <c r="E34" s="237"/>
+      <c r="E34" s="239"/>
       <c r="F34" s="170" t="s">
         <v>603</v>
       </c>
       <c r="G34" s="171" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H34" s="167"/>
       <c r="Q34" s="167"/>
@@ -6739,12 +6752,12 @@
     </row>
     <row r="35" spans="4:21" ht="16.5" thickBot="1">
       <c r="D35" s="167"/>
-      <c r="E35" s="238"/>
+      <c r="E35" s="240"/>
       <c r="F35" s="172" t="s">
         <v>636</v>
       </c>
       <c r="G35" s="173" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H35" s="167"/>
       <c r="Q35" s="167"/>
@@ -6761,8 +6774,8 @@
     </row>
     <row r="36" spans="4:21" ht="15.75">
       <c r="D36" s="167"/>
-      <c r="E36" s="242" t="s">
-        <v>923</v>
+      <c r="E36" s="238" t="s">
+        <v>921</v>
       </c>
       <c r="F36" s="168" t="s">
         <v>635</v>
@@ -6785,7 +6798,7 @@
     </row>
     <row r="37" spans="4:21" ht="15.75">
       <c r="D37" s="167"/>
-      <c r="E37" s="237"/>
+      <c r="E37" s="239"/>
       <c r="F37" s="170" t="s">
         <v>603</v>
       </c>
@@ -6807,7 +6820,7 @@
     </row>
     <row r="38" spans="4:21" ht="16.5" thickBot="1">
       <c r="D38" s="167"/>
-      <c r="E38" s="238"/>
+      <c r="E38" s="240"/>
       <c r="F38" s="172" t="s">
         <v>636</v>
       </c>
@@ -6829,14 +6842,14 @@
     </row>
     <row r="39" spans="4:21" ht="15.75">
       <c r="D39" s="167"/>
-      <c r="E39" s="242" t="s">
-        <v>927</v>
+      <c r="E39" s="238" t="s">
+        <v>925</v>
       </c>
       <c r="F39" s="168" t="s">
         <v>635</v>
       </c>
       <c r="G39" s="169" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H39" s="167"/>
       <c r="Q39" s="167"/>
@@ -6847,23 +6860,23 @@
     </row>
     <row r="40" spans="4:21" ht="15.75">
       <c r="D40" s="167"/>
-      <c r="E40" s="237"/>
+      <c r="E40" s="239"/>
       <c r="F40" s="170" t="s">
         <v>603</v>
       </c>
       <c r="G40" s="171" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H40" s="167"/>
     </row>
     <row r="41" spans="4:21" ht="16.5" thickBot="1">
       <c r="D41" s="167"/>
-      <c r="E41" s="238"/>
+      <c r="E41" s="240"/>
       <c r="F41" s="172" t="s">
         <v>636</v>
       </c>
       <c r="G41" s="173" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H41" s="167"/>
     </row>
@@ -6878,16 +6891,16 @@
     <row r="51" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6911,22 +6924,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="338" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
+      <c r="A1" s="344" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="B2" s="339" t="s">
+      <c r="B2" s="345" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="B3" s="41"/>
@@ -6963,7 +6976,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
@@ -6974,7 +6987,7 @@
         <v>631</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>654</v>
@@ -6988,7 +7001,7 @@
         <v>630</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>651</v>
@@ -7002,7 +7015,7 @@
         <v>629</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>507</v>
@@ -7016,7 +7029,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>375</v>
@@ -7062,12 +7075,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5">
-      <c r="A1" s="340" t="s">
-        <v>860</v>
-      </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
+      <c r="A1" s="346" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
       <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="28.5">
@@ -7275,28 +7288,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="341" t="s">
-        <v>859</v>
-      </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
+      <c r="A1" s="347" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="348" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="344"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="350"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="31" t="s">
@@ -7514,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>81</v>
@@ -7587,12 +7600,12 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="342" t="s">
+      <c r="A15" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="343"/>
-      <c r="C15" s="343"/>
-      <c r="D15" s="344"/>
+      <c r="B15" s="349"/>
+      <c r="C15" s="349"/>
+      <c r="D15" s="350"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -7760,12 +7773,12 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="342" t="s">
+      <c r="A28" s="348" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="343"/>
-      <c r="C28" s="343"/>
-      <c r="D28" s="344"/>
+      <c r="B28" s="349"/>
+      <c r="C28" s="349"/>
+      <c r="D28" s="350"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -7962,14 +7975,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="351" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="347"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="353"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="17"/>
@@ -7980,16 +7993,16 @@
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="341" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="335" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="341" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="336"/>
-      <c r="F3" s="337"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20">
@@ -8246,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8336,7 +8349,7 @@
         <v>703</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -8363,7 +8376,7 @@
         <v>387</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S2" s="63" t="s">
         <v>725</v>
@@ -8415,7 +8428,7 @@
         <v>387</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S3" s="63"/>
       <c r="T3" s="63"/>
@@ -8463,7 +8476,7 @@
         <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S4" s="63"/>
       <c r="T4" s="63"/>
@@ -8511,7 +8524,7 @@
         <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
@@ -8527,7 +8540,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
@@ -8542,7 +8555,7 @@
         <v>703</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8569,7 +8582,7 @@
         <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -8606,7 +8619,7 @@
         <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -8643,7 +8656,7 @@
         <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -8680,12 +8693,12 @@
         <v>387</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -8700,7 +8713,7 @@
         <v>703</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8842,7 +8855,7 @@
         <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>703</v>
+        <v>1011</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -8873,7 +8886,7 @@
         <v>449</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>703</v>
+        <v>1011</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -8904,7 +8917,7 @@
         <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>703</v>
+        <v>1011</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -8912,7 +8925,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:23">
       <c r="A17" s="7"/>
       <c r="B17" s="7">
         <v>4</v>
@@ -8935,7 +8948,7 @@
         <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>703</v>
+        <v>1011</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -8943,9 +8956,9 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:23">
       <c r="A18" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B18" s="7">
         <v>5</v>
@@ -8965,7 +8978,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:23">
       <c r="A19" s="7"/>
       <c r="B19" s="7">
         <v>5</v>
@@ -8985,7 +8998,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:23">
       <c r="A20" s="7"/>
       <c r="B20" s="7">
         <v>5</v>
@@ -9005,7 +9018,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:23">
       <c r="A21" s="7"/>
       <c r="B21" s="7">
         <v>5</v>
@@ -9025,9 +9038,9 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:23">
       <c r="A22" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -9061,8 +9074,23 @@
       <c r="Q22" s="111" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" s="111" t="s">
+        <v>708</v>
+      </c>
+      <c r="T22" s="111" t="s">
+        <v>705</v>
+      </c>
+      <c r="U22" s="111" t="s">
+        <v>704</v>
+      </c>
+      <c r="V22" s="111" t="s">
+        <v>706</v>
+      </c>
+      <c r="W22" s="111" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="7"/>
       <c r="B23" s="7">
         <v>6</v>
@@ -9082,7 +9110,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -9091,13 +9119,28 @@
         <v>711</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="Q23" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="T23" s="7">
+        <v>3</v>
+      </c>
+      <c r="U23" s="7">
+        <v>731</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="7"/>
       <c r="B24" s="7">
         <v>6</v>
@@ -9117,7 +9160,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
@@ -9126,13 +9169,26 @@
         <v>712</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7">
+        <v>3</v>
+      </c>
+      <c r="U24" s="7">
+        <v>732</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="7"/>
       <c r="B25" s="7">
         <v>6</v>
@@ -9152,7 +9208,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="M25" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N25" s="7">
         <v>1</v>
@@ -9161,13 +9217,26 @@
         <v>713</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7">
+        <v>3</v>
+      </c>
+      <c r="U25" s="7">
+        <v>733</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36"/>
@@ -9179,7 +9248,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -9188,13 +9257,26 @@
         <v>714</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7">
+        <v>3</v>
+      </c>
+      <c r="U26" s="7">
+        <v>734</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="36"/>
@@ -9206,7 +9288,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="M27" s="7" t="s">
-        <v>846</v>
+        <v>1009</v>
       </c>
       <c r="N27" s="7">
         <v>2</v>
@@ -9215,13 +9297,28 @@
         <v>721</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T27" s="7">
+        <v>4</v>
+      </c>
+      <c r="U27" s="7">
+        <v>741</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="36"/>
@@ -9233,7 +9330,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>846</v>
+        <v>1009</v>
       </c>
       <c r="N28" s="7">
         <v>2</v>
@@ -9242,13 +9339,26 @@
         <v>722</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7">
+        <v>4</v>
+      </c>
+      <c r="U28" s="7">
+        <v>742</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
@@ -9260,7 +9370,7 @@
       <c r="J29" s="123"/>
       <c r="K29" s="123"/>
       <c r="M29" s="7" t="s">
-        <v>846</v>
+        <v>1009</v>
       </c>
       <c r="N29" s="7">
         <v>2</v>
@@ -9269,13 +9379,26 @@
         <v>723</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7">
+        <v>4</v>
+      </c>
+      <c r="U29" s="7">
+        <v>743</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="36"/>
@@ -9287,7 +9410,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="M30" s="7" t="s">
-        <v>846</v>
+        <v>1009</v>
       </c>
       <c r="N30" s="7">
         <v>2</v>
@@ -9296,13 +9419,26 @@
         <v>724</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>703</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7">
+        <v>4</v>
+      </c>
+      <c r="U30" s="7">
+        <v>744</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="36"/>
@@ -9313,8 +9449,21 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="S31" s="7"/>
+      <c r="T31" s="36">
+        <v>5</v>
+      </c>
+      <c r="U31" s="36">
+        <v>751</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W31" s="36" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="36"/>
@@ -9325,8 +9474,21 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="S32" s="7"/>
+      <c r="T32" s="36">
+        <v>5</v>
+      </c>
+      <c r="U32" s="36">
+        <v>752</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W32" s="36" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="36"/>
@@ -9337,36 +9499,62 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="S33" s="7"/>
+      <c r="T33" s="36">
+        <v>5</v>
+      </c>
+      <c r="U33" s="36">
+        <v>753</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W33" s="36" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="S34" s="7"/>
+      <c r="T34" s="36">
+        <v>5</v>
+      </c>
+      <c r="U34" s="36">
+        <v>754</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="W34" s="36" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:23">
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:23">
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:23">
       <c r="A39" s="111" t="s">
         <v>708</v>
       </c>
@@ -9413,9 +9601,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B40" s="7">
         <v>1</v>
@@ -9430,7 +9618,7 @@
         <v>703</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>789</v>
+        <v>726</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -9445,7 +9633,7 @@
         <v>703</v>
       </c>
       <c r="M40" s="63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N40" s="63">
         <v>1</v>
@@ -9454,13 +9642,13 @@
         <v>711</v>
       </c>
       <c r="P40" s="63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Q40" s="63" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:23">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7">
@@ -9491,7 +9679,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:23">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7">
@@ -9522,7 +9710,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:23">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7">
@@ -9553,9 +9741,9 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B44" s="7">
         <v>2</v>
@@ -9570,7 +9758,7 @@
         <v>703</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -9585,7 +9773,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:23">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7">
@@ -9609,7 +9797,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:23">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7">
@@ -9633,7 +9821,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:23">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7">
@@ -9657,9 +9845,9 @@
         <v>703</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:23">
       <c r="A48" s="63" t="s">
-        <v>726</v>
+        <v>1006</v>
       </c>
       <c r="B48" s="63">
         <v>3</v>
@@ -9706,7 +9894,7 @@
         <v>728</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>809</v>
+        <v>1008</v>
       </c>
       <c r="H50" s="2">
         <v>3</v>
@@ -9718,7 +9906,7 @@
         <v>597</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9734,7 +9922,7 @@
         <v>728</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>809</v>
+        <v>1008</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2">
@@ -9744,12 +9932,12 @@
         <v>597</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="63" t="s">
-        <v>726</v>
+        <v>420</v>
       </c>
       <c r="B52" s="63">
         <v>4</v>
@@ -9764,7 +9952,7 @@
         <v>728</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>809</v>
+        <v>1008</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2">
@@ -9774,7 +9962,7 @@
         <v>597</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9790,7 +9978,7 @@
         <v>728</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>809</v>
+        <v>1008</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2">
@@ -9800,7 +9988,7 @@
         <v>597</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9830,14 +10018,54 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
+      <c r="A56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" s="114">
+        <v>351</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
+      <c r="C57" s="114">
+        <v>352</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="C58" s="354">
+        <v>353</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="C59" s="354">
+        <v>354</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="C61" s="114"/>
@@ -9859,7 +10087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AE13" sqref="AE13:AG30"/>
     </sheetView>
   </sheetViews>
@@ -9923,11 +10151,11 @@
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="S3" s="262" t="s">
+      <c r="S3" s="266" t="s">
         <v>282</v>
       </c>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
       <c r="W3" s="7" t="s">
         <v>2</v>
       </c>
@@ -9938,13 +10166,13 @@
         <v>479</v>
       </c>
       <c r="Z3" s="107"/>
-      <c r="AD3" s="264" t="s">
+      <c r="AD3" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="265"/>
-      <c r="AF3" s="265"/>
-      <c r="AG3" s="265"/>
-      <c r="AH3" s="266"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="262"/>
     </row>
     <row r="4" spans="2:34" ht="15.75">
       <c r="B4" s="55" t="s">
@@ -9984,13 +10212,13 @@
         <v>21</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="50"/>
-      <c r="S4" s="252" t="s">
+      <c r="S4" s="267" t="s">
         <v>634</v>
       </c>
       <c r="T4" s="86" t="s">
@@ -10061,7 +10289,7 @@
         <v>22</v>
       </c>
       <c r="P5" s="50"/>
-      <c r="S5" s="253"/>
+      <c r="S5" s="268"/>
       <c r="T5" s="30" t="s">
         <v>603</v>
       </c>
@@ -10141,7 +10369,7 @@
         <v>652</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="254"/>
+      <c r="S6" s="269"/>
       <c r="T6" s="88" t="s">
         <v>636</v>
       </c>
@@ -10213,7 +10441,7 @@
         <v>57</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="O7" s="56" t="s">
         <v>46</v>
@@ -10223,7 +10451,7 @@
         <v>284</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="252" t="s">
+      <c r="S7" s="267" t="s">
         <v>640</v>
       </c>
       <c r="T7" s="86" t="s">
@@ -10243,7 +10471,7 @@
       </c>
       <c r="Z7" s="107"/>
       <c r="AD7" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AE7" s="101" t="s">
         <v>81</v>
@@ -10304,7 +10532,7 @@
         <v>285</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="253"/>
+      <c r="S8" s="268"/>
       <c r="T8" s="30" t="s">
         <v>603</v>
       </c>
@@ -10373,7 +10601,7 @@
         <v>286</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="254"/>
+      <c r="S9" s="269"/>
       <c r="T9" s="88" t="s">
         <v>636</v>
       </c>
@@ -10437,7 +10665,7 @@
         <v>93</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O10" s="56" t="s">
         <v>82</v>
@@ -10464,7 +10692,7 @@
         <v>502</v>
       </c>
       <c r="AB10" s="156" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AC10" t="s">
         <v>34</v>
@@ -10518,7 +10746,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="258" t="s">
+      <c r="S11" s="273" t="s">
         <v>641</v>
       </c>
       <c r="T11" s="91" t="s">
@@ -10541,7 +10769,7 @@
         <v>501</v>
       </c>
       <c r="AB11" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AC11" t="s">
         <v>10</v>
@@ -10594,7 +10822,7 @@
       <c r="P12" s="83"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="259"/>
+      <c r="S12" s="274"/>
       <c r="T12" s="85" t="s">
         <v>603</v>
       </c>
@@ -10615,7 +10843,7 @@
         <v>503</v>
       </c>
       <c r="AB12" s="39" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AC12" t="s">
         <v>34</v>
@@ -10665,7 +10893,7 @@
       <c r="P13" s="83"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="260"/>
+      <c r="S13" s="275"/>
       <c r="T13" s="93" t="s">
         <v>636</v>
       </c>
@@ -10685,16 +10913,16 @@
         <v>504</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AC13" t="s">
         <v>34</v>
       </c>
-      <c r="AE13" s="264" t="s">
+      <c r="AE13" s="260" t="s">
         <v>626</v>
       </c>
-      <c r="AF13" s="265"/>
-      <c r="AG13" s="266"/>
+      <c r="AF13" s="261"/>
+      <c r="AG13" s="262"/>
     </row>
     <row r="14" spans="2:34" ht="15.75">
       <c r="B14" s="55" t="s">
@@ -10742,7 +10970,7 @@
         <v>281</v>
       </c>
       <c r="R14" s="3"/>
-      <c r="S14" s="252" t="s">
+      <c r="S14" s="267" t="s">
         <v>644</v>
       </c>
       <c r="T14" s="91" t="s">
@@ -10799,7 +11027,7 @@
         <v>152</v>
       </c>
       <c r="N15" s="36" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="O15" s="56" t="s">
         <v>141</v>
@@ -10809,7 +11037,7 @@
         <v>294</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="253"/>
+      <c r="S15" s="268"/>
       <c r="T15" s="85" t="s">
         <v>603</v>
       </c>
@@ -10835,7 +11063,7 @@
         <v>480</v>
       </c>
       <c r="AH15" s="39" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="16.5" thickBot="1">
@@ -10880,7 +11108,7 @@
         <v>293</v>
       </c>
       <c r="R16" s="3"/>
-      <c r="S16" s="261"/>
+      <c r="S16" s="276"/>
       <c r="T16" s="158" t="s">
         <v>636</v>
       </c>
@@ -10918,7 +11146,7 @@
         <v>482</v>
       </c>
       <c r="AH16" s="114" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="15.75">
@@ -10959,7 +11187,7 @@
         <v>164</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="O17" s="56" t="s">
         <v>153</v>
@@ -10969,17 +11197,17 @@
         <v>297</v>
       </c>
       <c r="R17" s="3"/>
-      <c r="S17" s="252" t="s">
-        <v>905</v>
+      <c r="S17" s="267" t="s">
+        <v>903</v>
       </c>
       <c r="T17" s="91" t="s">
         <v>635</v>
       </c>
       <c r="U17" s="160" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="X17" s="37" t="s">
         <v>675</v>
@@ -11009,7 +11237,7 @@
         <v>481</v>
       </c>
       <c r="AH17" s="114" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15.75">
@@ -11058,16 +11286,16 @@
         <v>298</v>
       </c>
       <c r="R18" s="3"/>
-      <c r="S18" s="253"/>
+      <c r="S18" s="268"/>
       <c r="T18" s="85" t="s">
         <v>603</v>
       </c>
       <c r="U18" s="161" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="V18" s="39"/>
       <c r="W18" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="X18" s="36" t="s">
         <v>673</v>
@@ -11076,7 +11304,7 @@
         <v>194</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>662</v>
@@ -11097,7 +11325,7 @@
         <v>483</v>
       </c>
       <c r="AH18" s="144" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="19" spans="2:38" ht="16.5" thickBot="1">
@@ -11146,16 +11374,16 @@
         <v>301</v>
       </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="254"/>
+      <c r="S19" s="269"/>
       <c r="T19" s="93" t="s">
         <v>636</v>
       </c>
       <c r="U19" s="162" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="V19" s="39"/>
       <c r="W19" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="X19" s="37" t="s">
         <v>674</v>
@@ -11185,7 +11413,7 @@
         <v>486</v>
       </c>
       <c r="AH19" s="144" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="2:38" ht="15.75">
@@ -11234,21 +11462,21 @@
         <v>302</v>
       </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="255" t="s">
-        <v>906</v>
+      <c r="S20" s="270" t="s">
+        <v>904</v>
       </c>
       <c r="T20" s="91" t="s">
         <v>635</v>
       </c>
       <c r="U20" s="164" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="37" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="X20" s="37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Y20" s="37" t="s">
         <v>171</v>
@@ -11275,7 +11503,7 @@
         <v>488</v>
       </c>
       <c r="AH20" s="144" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="21" spans="2:38" ht="15.75">
@@ -11323,28 +11551,28 @@
       <c r="Q21" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="S21" s="256"/>
+      <c r="S21" s="271"/>
       <c r="T21" s="85" t="s">
         <v>603</v>
       </c>
       <c r="U21" s="161" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="V21" s="39"/>
       <c r="W21" s="114" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="X21" s="146" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Y21" s="51" t="s">
         <v>67</v>
       </c>
       <c r="Z21" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AA21" s="114" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AB21" s="114">
         <v>5403</v>
@@ -11362,7 +11590,7 @@
         <v>489</v>
       </c>
       <c r="AH21" s="144" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" spans="2:38" ht="16.5" thickBot="1">
@@ -11410,12 +11638,12 @@
       <c r="Q22" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="S22" s="257"/>
+      <c r="S22" s="272"/>
       <c r="T22" s="93" t="s">
         <v>636</v>
       </c>
       <c r="U22" s="165" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="W22" s="132" t="s">
         <v>659</v>
@@ -11436,7 +11664,7 @@
         <v>490</v>
       </c>
       <c r="AH22" s="144" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="2:38" ht="15.75">
@@ -11484,8 +11712,8 @@
       <c r="Q23" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="S23" s="255" t="s">
-        <v>904</v>
+      <c r="S23" s="270" t="s">
+        <v>902</v>
       </c>
       <c r="T23" s="91" t="s">
         <v>635</v>
@@ -11569,7 +11797,7 @@
       <c r="Q24" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="S24" s="256"/>
+      <c r="S24" s="271"/>
       <c r="T24" s="85" t="s">
         <v>603</v>
       </c>
@@ -11577,7 +11805,7 @@
         <v>602</v>
       </c>
       <c r="W24" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="X24" s="37" t="s">
         <v>670</v>
@@ -11652,7 +11880,7 @@
       <c r="Q25" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="S25" s="257"/>
+      <c r="S25" s="272"/>
       <c r="T25" s="93" t="s">
         <v>636</v>
       </c>
@@ -11661,7 +11889,7 @@
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="X25" s="36" t="s">
         <v>669</v>
@@ -11732,27 +11960,27 @@
       </c>
       <c r="P26" s="50"/>
       <c r="Q26" s="3"/>
-      <c r="S26" s="252" t="s">
-        <v>907</v>
+      <c r="S26" s="267" t="s">
+        <v>905</v>
       </c>
       <c r="T26" s="91" t="s">
         <v>635</v>
       </c>
       <c r="U26" s="164" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="V26" s="84"/>
       <c r="W26" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="X26" s="36" t="s">
         <v>671</v>
       </c>
       <c r="Y26" s="51" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AA26" s="36" t="s">
         <v>667</v>
@@ -11772,12 +12000,12 @@
       <c r="AG26" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="AI26" s="267" t="s">
+      <c r="AI26" s="257" t="s">
         <v>281</v>
       </c>
-      <c r="AJ26" s="268"/>
-      <c r="AK26" s="268"/>
-      <c r="AL26" s="269"/>
+      <c r="AJ26" s="258"/>
+      <c r="AK26" s="258"/>
+      <c r="AL26" s="259"/>
     </row>
     <row r="27" spans="2:38" ht="15.75">
       <c r="B27" s="55" t="s">
@@ -11817,31 +12045,31 @@
         <v>445</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="O27" s="56" t="s">
         <v>270</v>
       </c>
       <c r="P27" s="50"/>
-      <c r="S27" s="253"/>
+      <c r="S27" s="268"/>
       <c r="T27" s="85" t="s">
         <v>603</v>
       </c>
       <c r="U27" s="163" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="X27" s="36" t="s">
         <v>672</v>
       </c>
       <c r="Y27" s="51" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AA27" s="36" t="s">
         <v>668</v>
@@ -11865,7 +12093,7 @@
         <v>290</v>
       </c>
       <c r="AJ27" s="174" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AK27" s="174" t="s">
         <v>317</v>
@@ -11876,7 +12104,7 @@
     </row>
     <row r="28" spans="2:38" ht="16.5" thickBot="1">
       <c r="B28" s="149" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -11890,34 +12118,34 @@
       <c r="L28" s="37"/>
       <c r="M28" s="36"/>
       <c r="N28" s="39" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="O28" s="149" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="P28" s="50"/>
-      <c r="S28" s="254"/>
+      <c r="S28" s="269"/>
       <c r="T28" s="93" t="s">
         <v>636</v>
       </c>
       <c r="U28" s="166" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28" s="114" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="X28" s="114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="Y28" s="51" t="s">
         <v>32</v>
       </c>
       <c r="Z28" s="114" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AA28" s="114" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AB28" s="114">
         <v>5503</v>
@@ -11938,7 +12166,7 @@
         <v>478</v>
       </c>
       <c r="AL28" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="2:38">
@@ -11989,7 +12217,7 @@
         <v>655</v>
       </c>
       <c r="AI29" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AJ29" s="9" t="s">
         <v>125</v>
@@ -11998,7 +12226,7 @@
         <v>595</v>
       </c>
       <c r="AL29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="30" spans="2:38">
@@ -12012,25 +12240,25 @@
         <v>656</v>
       </c>
       <c r="AI30" s="147" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AJ30" s="148" t="s">
         <v>69</v>
       </c>
       <c r="AK30" s="147" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="2:38">
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="265"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="265"/>
-      <c r="G32" s="265"/>
-      <c r="H32" s="266"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262"/>
       <c r="J32" s="263" t="s">
         <v>300</v>
       </c>
@@ -12265,7 +12493,7 @@
         <v>684</v>
       </c>
       <c r="AK35" s="113" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="2:37">
@@ -12332,7 +12560,7 @@
       <c r="AA36" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="AE36" s="271" t="s">
+      <c r="AE36" s="265" t="s">
         <v>685</v>
       </c>
       <c r="AF36" s="7" t="s">
@@ -12351,7 +12579,7 @@
         <v>12</v>
       </c>
       <c r="AK36" s="36" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="2:37">
@@ -12418,7 +12646,7 @@
       <c r="AA37" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="AE37" s="271"/>
+      <c r="AE37" s="265"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
@@ -12490,7 +12718,7 @@
       <c r="AA38" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="AE38" s="271"/>
+      <c r="AE38" s="265"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
@@ -12547,7 +12775,7 @@
       <c r="AA39" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="AE39" s="271"/>
+      <c r="AE39" s="265"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
@@ -12562,16 +12790,16 @@
       <c r="F40" t="s">
         <v>564</v>
       </c>
-      <c r="J40" s="270" t="s">
+      <c r="J40" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="K40" s="270"/>
-      <c r="L40" s="270"/>
-      <c r="M40" s="270"/>
-      <c r="N40" s="270"/>
-      <c r="O40" s="270"/>
-      <c r="P40" s="270"/>
-      <c r="Q40" s="270"/>
+      <c r="K40" s="264"/>
+      <c r="L40" s="264"/>
+      <c r="M40" s="264"/>
+      <c r="N40" s="264"/>
+      <c r="O40" s="264"/>
+      <c r="P40" s="264"/>
+      <c r="Q40" s="264"/>
       <c r="T40">
         <v>7</v>
       </c>
@@ -12794,16 +13022,16 @@
         <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J49" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L49" s="122">
         <v>65.599999999999994</v>
       </c>
       <c r="M49" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -12818,16 +13046,16 @@
         <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J50" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L50" s="122">
         <v>65.7</v>
       </c>
       <c r="M50" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>679</v>
@@ -12854,16 +13082,16 @@
         <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J51" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L51" s="122">
         <v>65.8</v>
       </c>
       <c r="M51" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U51" s="7" t="s">
         <v>680</v>
@@ -12887,13 +13115,13 @@
     </row>
     <row r="52" spans="4:27">
       <c r="J52" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L52" s="122">
         <v>65.900000000000006</v>
       </c>
       <c r="M52" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U52" s="7" t="s">
         <v>681</v>
@@ -12917,13 +13145,13 @@
     </row>
     <row r="53" spans="4:27">
       <c r="J53" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L53" s="122">
         <v>66</v>
       </c>
       <c r="M53" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -12945,72 +13173,61 @@
     </row>
     <row r="54" spans="4:27">
       <c r="J54" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L54" s="122">
         <v>66.099999999999994</v>
       </c>
       <c r="M54" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="4:27">
       <c r="J55" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L55" s="122">
         <v>66.2</v>
       </c>
       <c r="M55" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="56" spans="4:27">
       <c r="J56" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L56" s="122">
         <v>66.300000000000097</v>
       </c>
       <c r="M56" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57" spans="4:27">
       <c r="J57" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L57" s="122">
         <v>66.400000000000105</v>
       </c>
       <c r="M57" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="58" spans="4:27">
       <c r="J58" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L58" s="122">
         <v>66.500000000000099</v>
       </c>
       <c r="M58" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="U32:AA32"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="AE36:AE39"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W15:AC15"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="S17:S19"/>
     <mergeCell ref="S20:S22"/>
     <mergeCell ref="S23:S25"/>
@@ -13018,6 +13235,17 @@
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W15:AC15"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="AE36:AE39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13268,40 +13496,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="272" t="s">
-        <v>862</v>
-      </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="274"/>
+      <c r="A1" s="277" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="279"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="275"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="277"/>
+      <c r="A2" s="280"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="282"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="283" t="s">
         <v>604</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284" t="s">
         <v>605</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="280"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="285"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="71">
@@ -13326,7 +13554,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>479</v>
@@ -13352,7 +13580,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>484</v>
@@ -13378,7 +13606,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>480</v>
@@ -13404,7 +13632,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>482</v>
@@ -13416,13 +13644,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G8" s="74" t="s">
         <v>603</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
@@ -13430,7 +13658,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>481</v>
@@ -13442,7 +13670,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G9" s="74" t="s">
         <v>651</v>
@@ -13456,7 +13684,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>483</v>
@@ -13468,7 +13696,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>654</v>
@@ -13482,7 +13710,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>486</v>
@@ -13494,7 +13722,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G11" s="103" t="s">
         <v>655</v>
@@ -13508,7 +13736,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>488</v>
@@ -13520,7 +13748,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G12" s="74" t="s">
         <v>656</v>
@@ -13534,7 +13762,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C13" s="74" t="s">
         <v>489</v>
@@ -13546,7 +13774,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G13" s="74" t="s">
         <v>378</v>
@@ -13560,7 +13788,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>490</v>
@@ -13572,13 +13800,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G14" s="74" t="s">
         <v>554</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
@@ -13586,7 +13814,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C15" s="74" t="s">
         <v>505</v>
@@ -13598,13 +13826,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
@@ -13612,7 +13840,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>506</v>
@@ -13630,7 +13858,7 @@
         <v>677</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
@@ -13638,7 +13866,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>507</v>
@@ -13650,13 +13878,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G17" s="103" t="s">
         <v>678</v>
       </c>
       <c r="H17" s="73" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
@@ -13664,7 +13892,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C18" s="74" t="s">
         <v>648</v>
@@ -13676,13 +13904,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
@@ -13690,7 +13918,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>649</v>
@@ -13702,7 +13930,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G19" s="102" t="s">
         <v>496</v>
@@ -13716,25 +13944,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C20" s="74" t="s">
         <v>650</v>
       </c>
       <c r="D20" s="192" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E20" s="72">
         <v>17</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G20" s="103" t="s">
         <v>553</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
@@ -13742,7 +13970,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>485</v>
@@ -13754,7 +13982,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G21" s="102" t="s">
         <v>491</v>
@@ -13768,7 +13996,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>487</v>
@@ -13786,7 +14014,7 @@
         <v>603</v>
       </c>
       <c r="H22" s="73" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
@@ -13794,7 +14022,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="81" t="s">
@@ -13804,13 +14032,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G23" s="74" t="s">
         <v>603</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14127,33 +14355,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="287" t="s">
-        <v>856</v>
-      </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="289"/>
+      <c r="A1" s="292" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="294"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="286" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="281" t="s">
-        <v>813</v>
-      </c>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="283"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="286" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="288"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="351">
+      <c r="A3" s="235">
         <v>1</v>
       </c>
       <c r="B3" s="127" t="s">
@@ -14162,10 +14390,10 @@
       <c r="C3" s="128" t="s">
         <v>479</v>
       </c>
-      <c r="D3" s="352" t="s">
-        <v>847</v>
-      </c>
-      <c r="E3" s="351">
+      <c r="D3" s="236" t="s">
+        <v>845</v>
+      </c>
+      <c r="E3" s="235">
         <v>1</v>
       </c>
       <c r="F3" s="127" t="s">
@@ -14174,12 +14402,12 @@
       <c r="G3" s="128" t="s">
         <v>636</v>
       </c>
-      <c r="H3" s="352" t="s">
+      <c r="H3" s="236" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A4" s="351">
+      <c r="A4" s="235">
         <v>2</v>
       </c>
       <c r="B4" s="127" t="s">
@@ -14188,10 +14416,10 @@
       <c r="C4" s="128" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="352" t="s">
-        <v>848</v>
-      </c>
-      <c r="E4" s="351">
+      <c r="D4" s="236" t="s">
+        <v>846</v>
+      </c>
+      <c r="E4" s="235">
         <v>2</v>
       </c>
       <c r="F4" s="127" t="s">
@@ -14200,12 +14428,12 @@
       <c r="G4" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="H4" s="352" t="s">
+      <c r="H4" s="236" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A5" s="351">
+      <c r="A5" s="235">
         <v>3</v>
       </c>
       <c r="B5" s="127" t="s">
@@ -14214,10 +14442,10 @@
       <c r="C5" s="128" t="s">
         <v>648</v>
       </c>
-      <c r="D5" s="352" t="s">
-        <v>849</v>
-      </c>
-      <c r="E5" s="351">
+      <c r="D5" s="236" t="s">
+        <v>847</v>
+      </c>
+      <c r="E5" s="235">
         <v>3</v>
       </c>
       <c r="F5" s="127" t="s">
@@ -14226,12 +14454,12 @@
       <c r="G5" s="128" t="s">
         <v>636</v>
       </c>
-      <c r="H5" s="352" t="s">
+      <c r="H5" s="236" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A6" s="351">
+      <c r="A6" s="235">
         <v>4</v>
       </c>
       <c r="B6" s="127" t="s">
@@ -14240,10 +14468,10 @@
       <c r="C6" s="128" t="s">
         <v>649</v>
       </c>
-      <c r="D6" s="352" t="s">
-        <v>850</v>
-      </c>
-      <c r="E6" s="351">
+      <c r="D6" s="236" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" s="235">
         <v>4</v>
       </c>
       <c r="F6" s="127" t="s">
@@ -14252,12 +14480,12 @@
       <c r="G6" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="H6" s="352" t="s">
+      <c r="H6" s="236" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A7" s="351">
+      <c r="A7" s="235">
         <v>5</v>
       </c>
       <c r="B7" s="127" t="s">
@@ -14266,24 +14494,24 @@
       <c r="C7" s="128" t="s">
         <v>650</v>
       </c>
-      <c r="D7" s="352" t="s">
-        <v>989</v>
-      </c>
-      <c r="E7" s="351">
+      <c r="D7" s="236" t="s">
+        <v>987</v>
+      </c>
+      <c r="E7" s="235">
         <v>5</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G7" s="128" t="s">
         <v>636</v>
       </c>
-      <c r="H7" s="352" t="s">
-        <v>993</v>
+      <c r="H7" s="236" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A8" s="351">
+      <c r="A8" s="235">
         <v>6</v>
       </c>
       <c r="B8" s="127" t="s">
@@ -14292,25 +14520,25 @@
       <c r="C8" s="128" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="352" t="s">
-        <v>851</v>
-      </c>
-      <c r="E8" s="351">
+      <c r="D8" s="236" t="s">
+        <v>849</v>
+      </c>
+      <c r="E8" s="235">
         <v>6</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G8" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="H8" s="352" t="s">
-        <v>993</v>
+      <c r="H8" s="236" t="s">
+        <v>991</v>
       </c>
       <c r="I8" s="189"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A9" s="351">
+      <c r="A9" s="235">
         <v>7</v>
       </c>
       <c r="B9" s="127" t="s">
@@ -14319,10 +14547,10 @@
       <c r="C9" s="128" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="352" t="s">
-        <v>852</v>
-      </c>
-      <c r="E9" s="351">
+      <c r="D9" s="236" t="s">
+        <v>850</v>
+      </c>
+      <c r="E9" s="235">
         <v>7</v>
       </c>
       <c r="F9" s="127" t="s">
@@ -14331,25 +14559,25 @@
       <c r="G9" s="128" t="s">
         <v>378</v>
       </c>
-      <c r="H9" s="352" t="s">
-        <v>855</v>
+      <c r="H9" s="236" t="s">
+        <v>853</v>
       </c>
       <c r="I9" s="189"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A10" s="351">
+      <c r="A10" s="235">
         <v>8</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C10" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="D10" s="352" t="s">
-        <v>994</v>
-      </c>
-      <c r="E10" s="351">
+      <c r="D10" s="236" t="s">
+        <v>992</v>
+      </c>
+      <c r="E10" s="235">
         <v>8</v>
       </c>
       <c r="F10" s="127" t="s">
@@ -14358,25 +14586,25 @@
       <c r="G10" s="128" t="s">
         <v>491</v>
       </c>
-      <c r="H10" s="352" t="s">
-        <v>853</v>
+      <c r="H10" s="236" t="s">
+        <v>851</v>
       </c>
       <c r="I10" s="189"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A11" s="351">
+      <c r="A11" s="235">
         <v>9</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C11" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="D11" s="352" t="s">
-        <v>995</v>
-      </c>
-      <c r="E11" s="351">
+      <c r="D11" s="236" t="s">
+        <v>993</v>
+      </c>
+      <c r="E11" s="235">
         <v>9</v>
       </c>
       <c r="F11" s="127" t="s">
@@ -14385,25 +14613,25 @@
       <c r="G11" s="128" t="s">
         <v>496</v>
       </c>
-      <c r="H11" s="352" t="s">
-        <v>854</v>
+      <c r="H11" s="236" t="s">
+        <v>852</v>
       </c>
       <c r="I11" s="189"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A12" s="351">
+      <c r="A12" s="235">
         <v>10</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C12" s="128" t="s">
         <v>636</v>
       </c>
-      <c r="D12" s="352" t="s">
-        <v>996</v>
-      </c>
-      <c r="E12" s="351">
+      <c r="D12" s="236" t="s">
+        <v>994</v>
+      </c>
+      <c r="E12" s="235">
         <v>10</v>
       </c>
       <c r="F12" s="127" t="s">
@@ -14412,23 +14640,23 @@
       <c r="G12" s="128" t="s">
         <v>553</v>
       </c>
-      <c r="H12" s="352" t="s">
-        <v>990</v>
+      <c r="H12" s="236" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" thickBot="1">
-      <c r="A13" s="284" t="s">
-        <v>814</v>
-      </c>
-      <c r="B13" s="285"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="284" t="s">
-        <v>815</v>
-      </c>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="286"/>
+      <c r="A13" s="289" t="s">
+        <v>812</v>
+      </c>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="289" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" thickBot="1">
       <c r="A14" s="116">
@@ -14438,10 +14666,10 @@
         <v>65.599999999999994</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E14" s="116">
         <v>1</v>
@@ -14452,8 +14680,8 @@
       <c r="G14" s="121" t="s">
         <v>521</v>
       </c>
-      <c r="H14" s="353" t="s">
-        <v>826</v>
+      <c r="H14" s="237" t="s">
+        <v>824</v>
       </c>
       <c r="I14" s="189"/>
     </row>
@@ -14465,10 +14693,10 @@
         <v>65.7</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D15" s="118" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E15" s="116">
         <v>2</v>
@@ -14479,8 +14707,8 @@
       <c r="G15" s="121" t="s">
         <v>463</v>
       </c>
-      <c r="H15" s="353" t="s">
-        <v>827</v>
+      <c r="H15" s="237" t="s">
+        <v>825</v>
       </c>
       <c r="I15" s="189"/>
     </row>
@@ -14492,10 +14720,10 @@
         <v>65.8</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D16" s="118" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E16" s="116">
         <v>3</v>
@@ -14506,8 +14734,8 @@
       <c r="G16" s="121" t="s">
         <v>466</v>
       </c>
-      <c r="H16" s="353" t="s">
-        <v>828</v>
+      <c r="H16" s="237" t="s">
+        <v>826</v>
       </c>
       <c r="I16" s="189"/>
     </row>
@@ -14519,10 +14747,10 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D17" s="118" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E17" s="116">
         <v>4</v>
@@ -14533,8 +14761,8 @@
       <c r="G17" s="121" t="s">
         <v>467</v>
       </c>
-      <c r="H17" s="353" t="s">
-        <v>829</v>
+      <c r="H17" s="237" t="s">
+        <v>827</v>
       </c>
       <c r="I17" s="189"/>
     </row>
@@ -14546,10 +14774,10 @@
         <v>66</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D18" s="118" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E18" s="116">
         <v>5</v>
@@ -14560,8 +14788,8 @@
       <c r="G18" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="H18" s="353" t="s">
-        <v>830</v>
+      <c r="H18" s="237" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
@@ -14572,10 +14800,10 @@
         <v>66.099999999999994</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D19" s="118" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E19" s="116">
         <v>6</v>
@@ -14586,8 +14814,8 @@
       <c r="G19" s="121" t="s">
         <v>471</v>
       </c>
-      <c r="H19" s="353" t="s">
-        <v>831</v>
+      <c r="H19" s="237" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
@@ -14598,10 +14826,10 @@
         <v>66.2</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D20" s="118" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E20" s="116">
         <v>7</v>
@@ -14612,8 +14840,8 @@
       <c r="G20" s="121" t="s">
         <v>473</v>
       </c>
-      <c r="H20" s="353" t="s">
-        <v>832</v>
+      <c r="H20" s="237" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
@@ -14624,10 +14852,10 @@
         <v>66.300000000000097</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E21" s="116">
         <v>8</v>
@@ -14648,10 +14876,10 @@
         <v>66.400000000000105</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E22" s="116">
         <v>9</v>
@@ -14672,10 +14900,10 @@
         <v>66.500000000000099</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E23" s="138">
         <v>10</v>
@@ -14822,28 +15050,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="293" t="s">
-        <v>861</v>
-      </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="295"/>
+      <c r="A1" s="298" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="300"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="295" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="292"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="297"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="228"/>
@@ -14874,7 +15102,7 @@
       <c r="B4" s="227" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="233" t="s">
         <v>639</v>
       </c>
       <c r="D4" s="227"/>
@@ -14884,7 +15112,7 @@
       <c r="F4" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="348" t="s">
+      <c r="G4" s="233" t="s">
         <v>104</v>
       </c>
       <c r="H4" s="231" t="s">
@@ -14898,7 +15126,7 @@
       <c r="B5" s="227" t="s">
         <v>696</v>
       </c>
-      <c r="C5" s="348" t="s">
+      <c r="C5" s="233" t="s">
         <v>638</v>
       </c>
       <c r="D5" s="227"/>
@@ -14906,9 +15134,9 @@
         <v>12</v>
       </c>
       <c r="F5" s="227" t="s">
-        <v>959</v>
-      </c>
-      <c r="G5" s="348" t="s">
+        <v>957</v>
+      </c>
+      <c r="G5" s="233" t="s">
         <v>91</v>
       </c>
       <c r="H5" s="231" t="s">
@@ -14922,7 +15150,7 @@
       <c r="B6" s="227" t="s">
         <v>697</v>
       </c>
-      <c r="C6" s="348" t="s">
+      <c r="C6" s="233" t="s">
         <v>637</v>
       </c>
       <c r="D6" s="227"/>
@@ -14932,7 +15160,7 @@
       <c r="F6" s="227" t="s">
         <v>492</v>
       </c>
-      <c r="G6" s="348" t="s">
+      <c r="G6" s="233" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="231" t="s">
@@ -14944,10 +15172,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="227" t="s">
-        <v>956</v>
-      </c>
-      <c r="C7" s="348" t="s">
-        <v>913</v>
+        <v>954</v>
+      </c>
+      <c r="C7" s="233" t="s">
+        <v>911</v>
       </c>
       <c r="D7" s="227"/>
       <c r="E7" s="226">
@@ -14956,7 +15184,7 @@
       <c r="F7" s="227" t="s">
         <v>493</v>
       </c>
-      <c r="G7" s="348" t="s">
+      <c r="G7" s="233" t="s">
         <v>257</v>
       </c>
       <c r="H7" s="231" t="s">
@@ -14968,19 +15196,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="227" t="s">
-        <v>957</v>
-      </c>
-      <c r="C8" s="348" t="s">
-        <v>909</v>
+        <v>955</v>
+      </c>
+      <c r="C8" s="233" t="s">
+        <v>907</v>
       </c>
       <c r="D8" s="227"/>
       <c r="E8" s="226">
         <v>15</v>
       </c>
       <c r="F8" s="227" t="s">
-        <v>897</v>
-      </c>
-      <c r="G8" s="348" t="s">
+        <v>895</v>
+      </c>
+      <c r="G8" s="233" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="231" t="s">
@@ -14993,10 +15221,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="227" t="s">
-        <v>958</v>
-      </c>
-      <c r="C9" s="348" t="s">
-        <v>914</v>
+        <v>956</v>
+      </c>
+      <c r="C9" s="233" t="s">
+        <v>912</v>
       </c>
       <c r="D9" s="227"/>
       <c r="E9" s="226">
@@ -15005,7 +15233,7 @@
       <c r="F9" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="348" t="s">
+      <c r="G9" s="233" t="s">
         <v>163</v>
       </c>
       <c r="H9" s="231" t="s">
@@ -15019,7 +15247,7 @@
       <c r="B10" s="227" t="s">
         <v>698</v>
       </c>
-      <c r="C10" s="348" t="s">
+      <c r="C10" s="233" t="s">
         <v>504</v>
       </c>
       <c r="D10" s="227"/>
@@ -15029,7 +15257,7 @@
       <c r="F10" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G10" s="348" t="s">
+      <c r="G10" s="233" t="s">
         <v>268</v>
       </c>
       <c r="H10" s="231" t="s">
@@ -15046,7 +15274,7 @@
       <c r="B11" s="227" t="s">
         <v>699</v>
       </c>
-      <c r="C11" s="348" t="s">
+      <c r="C11" s="233" t="s">
         <v>503</v>
       </c>
       <c r="D11" s="227"/>
@@ -15056,7 +15284,7 @@
       <c r="F11" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G11" s="348" t="s">
+      <c r="G11" s="233" t="s">
         <v>203</v>
       </c>
       <c r="H11" s="231" t="s">
@@ -15073,7 +15301,7 @@
       <c r="B12" s="227" t="s">
         <v>700</v>
       </c>
-      <c r="C12" s="348" t="s">
+      <c r="C12" s="233" t="s">
         <v>647</v>
       </c>
       <c r="D12" s="227"/>
@@ -15083,7 +15311,7 @@
       <c r="F12" s="227" t="s">
         <v>709</v>
       </c>
-      <c r="G12" s="348" t="s">
+      <c r="G12" s="233" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="231"/>
@@ -15096,7 +15324,7 @@
       <c r="B13" s="227" t="s">
         <v>701</v>
       </c>
-      <c r="C13" s="348" t="s">
+      <c r="C13" s="233" t="s">
         <v>646</v>
       </c>
       <c r="D13" s="227"/>
@@ -15106,22 +15334,22 @@
       <c r="F13" s="227" t="s">
         <v>710</v>
       </c>
-      <c r="G13" s="348" t="s">
-        <v>999</v>
+      <c r="G13" s="233" t="s">
+        <v>997</v>
       </c>
       <c r="H13" s="231"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="290" t="s">
+      <c r="A14" s="295" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="292"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="296"/>
+      <c r="E14" s="296"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="297"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="232"/>
@@ -15152,7 +15380,7 @@
       <c r="B16" s="227" t="s">
         <v>600</v>
       </c>
-      <c r="C16" s="348"/>
+      <c r="C16" s="233"/>
       <c r="D16" s="227"/>
       <c r="E16" s="226">
         <v>11</v>
@@ -15160,7 +15388,7 @@
       <c r="F16" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="G16" s="348" t="s">
+      <c r="G16" s="233" t="s">
         <v>222</v>
       </c>
       <c r="H16" s="231" t="s">
@@ -15175,7 +15403,7 @@
       <c r="B17" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="348" t="s">
+      <c r="C17" s="233" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="227" t="s">
@@ -15187,7 +15415,7 @@
       <c r="F17" s="227" t="s">
         <v>627</v>
       </c>
-      <c r="G17" s="348" t="s">
+      <c r="G17" s="233" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="231" t="s">
@@ -15201,7 +15429,7 @@
       <c r="B18" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="348" t="s">
+      <c r="C18" s="233" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="227" t="s">
@@ -15213,7 +15441,7 @@
       <c r="F18" s="227" t="s">
         <v>628</v>
       </c>
-      <c r="G18" s="348" t="s">
+      <c r="G18" s="233" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="231" t="s">
@@ -15227,7 +15455,7 @@
       <c r="B19" s="227" t="s">
         <v>618</v>
       </c>
-      <c r="C19" s="348" t="s">
+      <c r="C19" s="233" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="227" t="s">
@@ -15239,7 +15467,7 @@
       <c r="F19" s="227" t="s">
         <v>629</v>
       </c>
-      <c r="G19" s="348" t="s">
+      <c r="G19" s="233" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="231" t="s">
@@ -15253,7 +15481,7 @@
       <c r="B20" s="227" t="s">
         <v>619</v>
       </c>
-      <c r="C20" s="348" t="s">
+      <c r="C20" s="233" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="227" t="s">
@@ -15265,7 +15493,7 @@
       <c r="F20" s="227" t="s">
         <v>688</v>
       </c>
-      <c r="G20" s="348" t="s">
+      <c r="G20" s="233" t="s">
         <v>184</v>
       </c>
       <c r="H20" s="231" t="s">
@@ -15279,7 +15507,7 @@
       <c r="B21" s="227" t="s">
         <v>620</v>
       </c>
-      <c r="C21" s="348" t="s">
+      <c r="C21" s="233" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="227" t="s">
@@ -15291,7 +15519,7 @@
       <c r="F21" s="227" t="s">
         <v>689</v>
       </c>
-      <c r="G21" s="348" t="s">
+      <c r="G21" s="233" t="s">
         <v>60</v>
       </c>
       <c r="H21" s="231" t="s">
@@ -15305,7 +15533,7 @@
       <c r="B22" s="227" t="s">
         <v>621</v>
       </c>
-      <c r="C22" s="348" t="s">
+      <c r="C22" s="233" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="227" t="s">
@@ -15315,9 +15543,9 @@
         <v>17</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>899</v>
-      </c>
-      <c r="G22" s="348" t="s">
+        <v>897</v>
+      </c>
+      <c r="G22" s="233" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="231" t="s">
@@ -15331,7 +15559,7 @@
       <c r="B23" s="227" t="s">
         <v>622</v>
       </c>
-      <c r="C23" s="348" t="s">
+      <c r="C23" s="233" t="s">
         <v>143</v>
       </c>
       <c r="D23" s="227" t="s">
@@ -15343,7 +15571,7 @@
       <c r="F23" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="348" t="s">
+      <c r="G23" s="233" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="231" t="s">
@@ -15357,7 +15585,7 @@
       <c r="B24" s="227" t="s">
         <v>623</v>
       </c>
-      <c r="C24" s="348" t="s">
+      <c r="C24" s="233" t="s">
         <v>230</v>
       </c>
       <c r="D24" s="227" t="s">
@@ -15369,7 +15597,7 @@
       <c r="F24" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="348" t="s">
+      <c r="G24" s="233" t="s">
         <v>107</v>
       </c>
       <c r="H24" s="231" t="s">
@@ -15383,7 +15611,7 @@
       <c r="B25" s="227" t="s">
         <v>624</v>
       </c>
-      <c r="C25" s="348" t="s">
+      <c r="C25" s="233" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="227" t="s">
@@ -15395,22 +15623,22 @@
       <c r="F25" s="227" t="s">
         <v>518</v>
       </c>
-      <c r="G25" s="348" t="s">
-        <v>1000</v>
+      <c r="G25" s="233" t="s">
+        <v>998</v>
       </c>
       <c r="H25" s="231"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="290" t="s">
+      <c r="A26" s="295" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="291"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
-      <c r="E26" s="291"/>
-      <c r="F26" s="291"/>
-      <c r="G26" s="291"/>
-      <c r="H26" s="292"/>
+      <c r="B26" s="296"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="296"/>
+      <c r="H26" s="297"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="228"/>
@@ -15441,7 +15669,7 @@
       <c r="B28" s="227" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="348" t="s">
+      <c r="C28" s="233" t="s">
         <v>167</v>
       </c>
       <c r="D28" s="227" t="s">
@@ -15453,8 +15681,8 @@
       <c r="F28" s="227" t="s">
         <v>511</v>
       </c>
-      <c r="G28" s="348" t="s">
-        <v>1002</v>
+      <c r="G28" s="233" t="s">
+        <v>1000</v>
       </c>
       <c r="H28" s="231" t="s">
         <v>521</v>
@@ -15467,7 +15695,7 @@
       <c r="B29" s="227" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="348" t="s">
+      <c r="C29" s="233" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="227" t="s">
@@ -15479,8 +15707,8 @@
       <c r="F29" s="227" t="s">
         <v>557</v>
       </c>
-      <c r="G29" s="348" t="s">
-        <v>1001</v>
+      <c r="G29" s="233" t="s">
+        <v>999</v>
       </c>
       <c r="H29" s="231" t="s">
         <v>463</v>
@@ -15493,7 +15721,7 @@
       <c r="B30" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="348" t="s">
+      <c r="C30" s="233" t="s">
         <v>182</v>
       </c>
       <c r="D30" s="227" t="s">
@@ -15505,8 +15733,8 @@
       <c r="F30" s="227" t="s">
         <v>558</v>
       </c>
-      <c r="G30" s="348" t="s">
-        <v>1003</v>
+      <c r="G30" s="233" t="s">
+        <v>1001</v>
       </c>
       <c r="H30" s="231" t="s">
         <v>466</v>
@@ -15519,7 +15747,7 @@
       <c r="B31" s="227" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="348" t="s">
+      <c r="C31" s="233" t="s">
         <v>187</v>
       </c>
       <c r="D31" s="227" t="s">
@@ -15531,8 +15759,8 @@
       <c r="F31" s="227" t="s">
         <v>559</v>
       </c>
-      <c r="G31" s="348" t="s">
-        <v>1004</v>
+      <c r="G31" s="233" t="s">
+        <v>1002</v>
       </c>
       <c r="H31" s="231" t="s">
         <v>467</v>
@@ -15545,7 +15773,7 @@
       <c r="B32" s="227" t="s">
         <v>556</v>
       </c>
-      <c r="C32" s="348" t="s">
+      <c r="C32" s="233" t="s">
         <v>214</v>
       </c>
       <c r="D32" s="227" t="s">
@@ -15557,8 +15785,8 @@
       <c r="F32" s="227" t="s">
         <v>560</v>
       </c>
-      <c r="G32" s="348" t="s">
-        <v>1005</v>
+      <c r="G32" s="233" t="s">
+        <v>1003</v>
       </c>
       <c r="H32" s="231" t="s">
         <v>469</v>
@@ -15571,7 +15799,7 @@
       <c r="B33" s="227" t="s">
         <v>568</v>
       </c>
-      <c r="C33" s="348" t="s">
+      <c r="C33" s="233" t="s">
         <v>191</v>
       </c>
       <c r="D33" s="227" t="s">
@@ -15583,8 +15811,8 @@
       <c r="F33" s="227" t="s">
         <v>561</v>
       </c>
-      <c r="G33" s="348" t="s">
-        <v>1006</v>
+      <c r="G33" s="233" t="s">
+        <v>1004</v>
       </c>
       <c r="H33" s="231" t="s">
         <v>471</v>
@@ -15597,7 +15825,7 @@
       <c r="B34" s="227" t="s">
         <v>569</v>
       </c>
-      <c r="C34" s="348" t="s">
+      <c r="C34" s="233" t="s">
         <v>218</v>
       </c>
       <c r="D34" s="227" t="s">
@@ -15609,8 +15837,8 @@
       <c r="F34" s="227" t="s">
         <v>562</v>
       </c>
-      <c r="G34" s="348" t="s">
-        <v>1007</v>
+      <c r="G34" s="233" t="s">
+        <v>1005</v>
       </c>
       <c r="H34" s="231" t="s">
         <v>473</v>
@@ -15623,7 +15851,7 @@
       <c r="B35" s="227" t="s">
         <v>570</v>
       </c>
-      <c r="C35" s="348" t="s">
+      <c r="C35" s="233" t="s">
         <v>243</v>
       </c>
       <c r="D35" s="227" t="s">
@@ -15635,7 +15863,7 @@
       <c r="F35" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G35" s="348" t="s">
+      <c r="G35" s="233" t="s">
         <v>693</v>
       </c>
       <c r="H35" s="231" t="s">
@@ -15649,7 +15877,7 @@
       <c r="B36" s="227" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="348" t="s">
+      <c r="C36" s="233" t="s">
         <v>242</v>
       </c>
       <c r="D36" s="227" t="s">
@@ -15661,7 +15889,7 @@
       <c r="F36" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G36" s="348" t="s">
+      <c r="G36" s="233" t="s">
         <v>694</v>
       </c>
       <c r="H36" s="231" t="s">
@@ -15675,7 +15903,7 @@
       <c r="B37" s="227" t="s">
         <v>572</v>
       </c>
-      <c r="C37" s="348" t="s">
+      <c r="C37" s="233" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="227" t="s">
@@ -15687,7 +15915,7 @@
       <c r="F37" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G37" s="348" t="s">
+      <c r="G37" s="233" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="231" t="s">
@@ -15841,40 +16069,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="296" t="s">
-        <v>858</v>
-      </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="298"/>
+      <c r="A1" s="301" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="303"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="299"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="301"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="306"/>
     </row>
     <row r="3" spans="1:12" ht="24" thickBot="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="302" t="s">
+      <c r="B3" s="308"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="307" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="303"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="310"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" thickBot="1">
       <c r="A4" s="194">
@@ -16105,7 +16333,7 @@
         <v>553</v>
       </c>
       <c r="H12" s="200" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="L12" s="190"/>
     </row>
@@ -16238,7 +16466,7 @@
         <v>660</v>
       </c>
       <c r="H17" s="200" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="L17" s="190"/>
     </row>
@@ -16263,7 +16491,7 @@
         <v>676</v>
       </c>
       <c r="H18" s="200" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L18" s="190"/>
     </row>
@@ -16282,13 +16510,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="199" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G19" s="200" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H19" s="200" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L19" s="190"/>
     </row>
@@ -16303,19 +16531,19 @@
         <v>648</v>
       </c>
       <c r="D20" s="201" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E20" s="198">
         <v>17</v>
       </c>
       <c r="F20" s="199" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G20" s="201" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H20" s="200" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L20" s="190"/>
     </row>
@@ -16330,19 +16558,19 @@
         <v>649</v>
       </c>
       <c r="D21" s="201" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E21" s="198">
         <v>18</v>
       </c>
       <c r="F21" s="199" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G21" s="200" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H21" s="200" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" thickBot="1">
@@ -16356,7 +16584,7 @@
         <v>650</v>
       </c>
       <c r="D22" s="201" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E22" s="198">
         <v>19</v>
@@ -16378,7 +16606,7 @@
       </c>
       <c r="C23" s="199"/>
       <c r="D23" s="199" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E23" s="198">
         <v>20</v>
@@ -16388,7 +16616,7 @@
       </c>
       <c r="G23" s="199"/>
       <c r="H23" s="199" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" thickBot="1">
@@ -16436,13 +16664,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="199" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G26" s="199" t="s">
         <v>603</v>
       </c>
       <c r="H26" s="200" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75" thickBot="1">
@@ -16472,13 +16700,13 @@
         <v>25</v>
       </c>
       <c r="F28" s="199" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G28" s="199" t="s">
         <v>603</v>
       </c>
       <c r="H28" s="199" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75" thickBot="1">
@@ -16496,7 +16724,7 @@
         <v>603</v>
       </c>
       <c r="H29" s="199" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75" thickBot="1">
@@ -16508,13 +16736,13 @@
         <v>27</v>
       </c>
       <c r="F30" s="199" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G30" s="199" t="s">
         <v>603</v>
       </c>
       <c r="H30" s="199" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" thickBot="1">
@@ -16689,40 +16917,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="323" t="s">
-        <v>857</v>
-      </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="325"/>
+      <c r="A1" s="311" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="313"/>
     </row>
     <row r="2" spans="1:9" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A2" s="326"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="328"/>
+      <c r="A2" s="314"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="316"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="317" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="329" t="s">
+      <c r="B3" s="318"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="317" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="332"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="320"/>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="204">
@@ -16825,7 +17053,7 @@
         <v>603</v>
       </c>
       <c r="H7" s="209" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I7" s="191"/>
     </row>
@@ -16846,13 +17074,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="208" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G8" s="219" t="s">
         <v>603</v>
       </c>
       <c r="H8" s="209" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I8" s="191"/>
     </row>
@@ -16931,7 +17159,7 @@
         <v>553</v>
       </c>
       <c r="H11" s="209" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I11" s="191"/>
     </row>
@@ -17006,13 +17234,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="208" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G14" s="219" t="s">
         <v>378</v>
       </c>
       <c r="H14" s="209" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I14" s="191"/>
     </row>
@@ -17060,13 +17288,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="208" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G16" s="219" t="s">
         <v>603</v>
       </c>
       <c r="H16" s="209" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I16" s="191"/>
     </row>
@@ -17087,13 +17315,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="208" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G17" s="219" t="s">
         <v>603</v>
       </c>
       <c r="H17" s="209" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I17" s="191"/>
     </row>
@@ -17120,7 +17348,7 @@
         <v>660</v>
       </c>
       <c r="H18" s="209" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I18" s="191"/>
     </row>
@@ -17147,7 +17375,7 @@
         <v>676</v>
       </c>
       <c r="H19" s="209" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I19" s="191"/>
     </row>
@@ -17168,13 +17396,13 @@
         <v>17</v>
       </c>
       <c r="F20" s="208" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G20" s="219" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H20" s="209" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I20" s="191"/>
     </row>
@@ -17189,19 +17417,19 @@
         <v>650</v>
       </c>
       <c r="D21" s="211" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E21" s="207">
         <v>18</v>
       </c>
       <c r="F21" s="208" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G21" s="210" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H21" s="209" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J21" s="191"/>
     </row>
@@ -17210,25 +17438,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="208" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C22" s="219" t="s">
         <v>730</v>
       </c>
       <c r="D22" s="209" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E22" s="207">
         <v>19</v>
       </c>
       <c r="F22" s="212" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G22" s="213" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H22" s="214" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J22" s="191"/>
     </row>
@@ -17260,37 +17488,37 @@
       <c r="J23" s="191"/>
     </row>
     <row r="24" spans="1:10" ht="24" thickBot="1">
-      <c r="A24" s="329" t="s">
+      <c r="A24" s="317" t="s">
         <v>745</v>
       </c>
-      <c r="B24" s="330"/>
-      <c r="C24" s="331"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="329" t="s">
+      <c r="B24" s="318"/>
+      <c r="C24" s="319"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="317" t="s">
         <v>746</v>
       </c>
-      <c r="F24" s="330"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="332"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="320"/>
       <c r="J24" s="191"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" thickBot="1">
       <c r="A25" s="204" t="s">
         <v>747</v>
       </c>
-      <c r="B25" s="308" t="s">
+      <c r="B25" s="321" t="s">
         <v>748</v>
       </c>
-      <c r="C25" s="309"/>
-      <c r="D25" s="310"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="204" t="s">
         <v>749</v>
       </c>
-      <c r="F25" s="308" t="s">
+      <c r="F25" s="321" t="s">
         <v>750</v>
       </c>
-      <c r="G25" s="309"/>
-      <c r="H25" s="318" t="s">
+      <c r="G25" s="322"/>
+      <c r="H25" s="324" t="s">
         <v>731</v>
       </c>
       <c r="J25" s="191"/>
@@ -17299,21 +17527,21 @@
       <c r="A26" s="207" t="s">
         <v>751</v>
       </c>
-      <c r="B26" s="313" t="s">
+      <c r="B26" s="325" t="s">
         <v>752</v>
       </c>
-      <c r="C26" s="314"/>
-      <c r="D26" s="315" t="s">
+      <c r="C26" s="326"/>
+      <c r="D26" s="327" t="s">
         <v>619</v>
       </c>
       <c r="E26" s="204" t="s">
         <v>753</v>
       </c>
-      <c r="F26" s="308" t="s">
+      <c r="F26" s="321" t="s">
         <v>754</v>
       </c>
-      <c r="G26" s="309"/>
-      <c r="H26" s="318" t="s">
+      <c r="G26" s="322"/>
+      <c r="H26" s="324" t="s">
         <v>733</v>
       </c>
       <c r="J26" s="191"/>
@@ -17322,21 +17550,21 @@
       <c r="A27" s="204" t="s">
         <v>755</v>
       </c>
-      <c r="B27" s="308" t="s">
+      <c r="B27" s="321" t="s">
         <v>756</v>
       </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="310" t="s">
+      <c r="C27" s="322"/>
+      <c r="D27" s="323" t="s">
         <v>620</v>
       </c>
       <c r="E27" s="207" t="s">
         <v>757</v>
       </c>
-      <c r="F27" s="313" t="s">
+      <c r="F27" s="325" t="s">
         <v>758</v>
       </c>
-      <c r="G27" s="314"/>
-      <c r="H27" s="319" t="s">
+      <c r="G27" s="326"/>
+      <c r="H27" s="328" t="s">
         <v>735</v>
       </c>
       <c r="J27" s="191"/>
@@ -17345,21 +17573,21 @@
       <c r="A28" s="207" t="s">
         <v>759</v>
       </c>
-      <c r="B28" s="313" t="s">
+      <c r="B28" s="325" t="s">
         <v>760</v>
       </c>
-      <c r="C28" s="314"/>
-      <c r="D28" s="315" t="s">
+      <c r="C28" s="326"/>
+      <c r="D28" s="327" t="s">
         <v>621</v>
       </c>
       <c r="E28" s="204" t="s">
         <v>761</v>
       </c>
-      <c r="F28" s="308" t="s">
+      <c r="F28" s="321" t="s">
         <v>762</v>
       </c>
-      <c r="G28" s="309"/>
-      <c r="H28" s="318" t="s">
+      <c r="G28" s="322"/>
+      <c r="H28" s="324" t="s">
         <v>736</v>
       </c>
     </row>
@@ -17367,21 +17595,21 @@
       <c r="A29" s="204" t="s">
         <v>763</v>
       </c>
-      <c r="B29" s="308" t="s">
+      <c r="B29" s="321" t="s">
         <v>764</v>
       </c>
-      <c r="C29" s="309"/>
-      <c r="D29" s="310" t="s">
+      <c r="C29" s="322"/>
+      <c r="D29" s="323" t="s">
         <v>622</v>
       </c>
       <c r="E29" s="207" t="s">
         <v>765</v>
       </c>
-      <c r="F29" s="313" t="s">
+      <c r="F29" s="325" t="s">
         <v>766</v>
       </c>
-      <c r="G29" s="314"/>
-      <c r="H29" s="319" t="s">
+      <c r="G29" s="326"/>
+      <c r="H29" s="328" t="s">
         <v>737</v>
       </c>
     </row>
@@ -17389,21 +17617,21 @@
       <c r="A30" s="207" t="s">
         <v>767</v>
       </c>
-      <c r="B30" s="313" t="s">
+      <c r="B30" s="325" t="s">
         <v>768</v>
       </c>
-      <c r="C30" s="314"/>
-      <c r="D30" s="315" t="s">
+      <c r="C30" s="326"/>
+      <c r="D30" s="327" t="s">
         <v>623</v>
       </c>
       <c r="E30" s="220" t="s">
         <v>769</v>
       </c>
-      <c r="F30" s="320" t="s">
+      <c r="F30" s="329" t="s">
         <v>770</v>
       </c>
-      <c r="G30" s="321"/>
-      <c r="H30" s="322" t="s">
+      <c r="G30" s="330"/>
+      <c r="H30" s="331" t="s">
         <v>494</v>
       </c>
     </row>
@@ -17411,17 +17639,17 @@
       <c r="A31" s="204" t="s">
         <v>771</v>
       </c>
-      <c r="B31" s="308" t="s">
+      <c r="B31" s="321" t="s">
         <v>772</v>
       </c>
-      <c r="C31" s="309"/>
-      <c r="D31" s="310" t="s">
+      <c r="C31" s="322"/>
+      <c r="D31" s="323" t="s">
         <v>624</v>
       </c>
       <c r="E31" s="221"/>
-      <c r="F31" s="316"/>
-      <c r="G31" s="316"/>
-      <c r="H31" s="317" t="s">
+      <c r="F31" s="332"/>
+      <c r="G31" s="332"/>
+      <c r="H31" s="333" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17429,17 +17657,17 @@
       <c r="A32" s="207" t="s">
         <v>773</v>
       </c>
-      <c r="B32" s="313" t="s">
+      <c r="B32" s="325" t="s">
         <v>774</v>
       </c>
-      <c r="C32" s="314"/>
-      <c r="D32" s="315" t="s">
+      <c r="C32" s="326"/>
+      <c r="D32" s="327" t="s">
         <v>618</v>
       </c>
       <c r="E32" s="222"/>
-      <c r="F32" s="311"/>
-      <c r="G32" s="311"/>
-      <c r="H32" s="312" t="s">
+      <c r="F32" s="334"/>
+      <c r="G32" s="334"/>
+      <c r="H32" s="335" t="s">
         <v>731</v>
       </c>
     </row>
@@ -17447,17 +17675,17 @@
       <c r="A33" s="204" t="s">
         <v>775</v>
       </c>
-      <c r="B33" s="308" t="s">
+      <c r="B33" s="321" t="s">
         <v>776</v>
       </c>
-      <c r="C33" s="309"/>
-      <c r="D33" s="310" t="s">
+      <c r="C33" s="322"/>
+      <c r="D33" s="323" t="s">
         <v>619</v>
       </c>
       <c r="E33" s="222"/>
-      <c r="F33" s="311"/>
-      <c r="G33" s="311"/>
-      <c r="H33" s="312" t="s">
+      <c r="F33" s="334"/>
+      <c r="G33" s="334"/>
+      <c r="H33" s="335" t="s">
         <v>733</v>
       </c>
     </row>
@@ -17465,17 +17693,17 @@
       <c r="A34" s="207" t="s">
         <v>777</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="325" t="s">
         <v>778</v>
       </c>
-      <c r="C34" s="314"/>
-      <c r="D34" s="315" t="s">
+      <c r="C34" s="326"/>
+      <c r="D34" s="327" t="s">
         <v>620</v>
       </c>
       <c r="E34" s="222"/>
-      <c r="F34" s="311"/>
-      <c r="G34" s="311"/>
-      <c r="H34" s="312" t="s">
+      <c r="F34" s="334"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="335" t="s">
         <v>735</v>
       </c>
     </row>
@@ -17483,17 +17711,17 @@
       <c r="A35" s="204" t="s">
         <v>779</v>
       </c>
-      <c r="B35" s="308" t="s">
+      <c r="B35" s="321" t="s">
         <v>780</v>
       </c>
-      <c r="C35" s="309"/>
-      <c r="D35" s="310" t="s">
+      <c r="C35" s="322"/>
+      <c r="D35" s="323" t="s">
         <v>621</v>
       </c>
       <c r="E35" s="222"/>
-      <c r="F35" s="311"/>
-      <c r="G35" s="311"/>
-      <c r="H35" s="312" t="s">
+      <c r="F35" s="334"/>
+      <c r="G35" s="334"/>
+      <c r="H35" s="335" t="s">
         <v>736</v>
       </c>
     </row>
@@ -17501,17 +17729,17 @@
       <c r="A36" s="207" t="s">
         <v>781</v>
       </c>
-      <c r="B36" s="313" t="s">
+      <c r="B36" s="325" t="s">
         <v>782</v>
       </c>
-      <c r="C36" s="314"/>
-      <c r="D36" s="315" t="s">
+      <c r="C36" s="326"/>
+      <c r="D36" s="327" t="s">
         <v>622</v>
       </c>
       <c r="E36" s="222"/>
-      <c r="F36" s="311"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="312" t="s">
+      <c r="F36" s="334"/>
+      <c r="G36" s="334"/>
+      <c r="H36" s="335" t="s">
         <v>737</v>
       </c>
     </row>
@@ -17519,17 +17747,17 @@
       <c r="A37" s="204" t="s">
         <v>783</v>
       </c>
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="321" t="s">
         <v>784</v>
       </c>
-      <c r="C37" s="309"/>
-      <c r="D37" s="310" t="s">
+      <c r="C37" s="322"/>
+      <c r="D37" s="323" t="s">
         <v>623</v>
       </c>
       <c r="E37" s="222"/>
-      <c r="F37" s="311"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="312" t="s">
+      <c r="F37" s="334"/>
+      <c r="G37" s="334"/>
+      <c r="H37" s="335" t="s">
         <v>494</v>
       </c>
     </row>
@@ -17537,17 +17765,17 @@
       <c r="A38" s="207" t="s">
         <v>785</v>
       </c>
-      <c r="B38" s="313" t="s">
-        <v>987</v>
-      </c>
-      <c r="C38" s="314"/>
-      <c r="D38" s="315" t="s">
+      <c r="B38" s="325" t="s">
+        <v>985</v>
+      </c>
+      <c r="C38" s="326"/>
+      <c r="D38" s="327" t="s">
         <v>624</v>
       </c>
       <c r="E38" s="222"/>
-      <c r="F38" s="311"/>
-      <c r="G38" s="311"/>
-      <c r="H38" s="312" t="s">
+      <c r="F38" s="334"/>
+      <c r="G38" s="334"/>
+      <c r="H38" s="335" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17555,33 +17783,33 @@
       <c r="A39" s="204" t="s">
         <v>787</v>
       </c>
-      <c r="B39" s="308" t="s">
-        <v>988</v>
-      </c>
-      <c r="C39" s="309"/>
-      <c r="D39" s="318" t="s">
+      <c r="B39" s="321" t="s">
+        <v>986</v>
+      </c>
+      <c r="C39" s="322"/>
+      <c r="D39" s="324" t="s">
         <v>624</v>
       </c>
-      <c r="E39" s="349"/>
-      <c r="F39" s="311"/>
-      <c r="G39" s="311"/>
-      <c r="H39" s="312"/>
+      <c r="E39" s="234"/>
+      <c r="F39" s="334"/>
+      <c r="G39" s="334"/>
+      <c r="H39" s="335"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A40" s="215" t="s">
         <v>788</v>
       </c>
-      <c r="B40" s="306" t="s">
+      <c r="B40" s="336" t="s">
         <v>786</v>
       </c>
-      <c r="C40" s="307"/>
-      <c r="D40" s="350" t="s">
+      <c r="C40" s="337"/>
+      <c r="D40" s="338" t="s">
         <v>624</v>
       </c>
-      <c r="E40" s="349"/>
-      <c r="F40" s="311"/>
-      <c r="G40" s="311"/>
-      <c r="H40" s="312"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="334"/>
+      <c r="G40" s="334"/>
+      <c r="H40" s="335"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="75"/>
@@ -17645,35 +17873,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="B37:D37"/>
@@ -17682,6 +17881,35 @@
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17708,34 +17936,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="339" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="334"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="341" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="335" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="341" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="336"/>
-      <c r="F3" s="337"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="52">
@@ -18092,14 +18320,14 @@
       <c r="F21" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="N21" s="338" t="s">
-        <v>793</v>
-      </c>
-      <c r="O21" s="338"/>
-      <c r="P21" s="338"/>
-      <c r="Q21" s="338"/>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
+      <c r="N21" s="344" t="s">
+        <v>792</v>
+      </c>
+      <c r="O21" s="344"/>
+      <c r="P21" s="344"/>
+      <c r="Q21" s="344"/>
+      <c r="R21" s="344"/>
+      <c r="S21" s="344"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" thickBot="1">
       <c r="A22" s="52">
@@ -18120,12 +18348,12 @@
       <c r="F22" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="O22" s="339" t="s">
+      <c r="O22" s="345" t="s">
         <v>363</v>
       </c>
-      <c r="P22" s="339"/>
-      <c r="Q22" s="339"/>
-      <c r="R22" s="339"/>
+      <c r="P22" s="345"/>
+      <c r="Q22" s="345"/>
+      <c r="R22" s="345"/>
     </row>
     <row r="23" spans="1:19" ht="19.5" thickBot="1">
       <c r="A23" s="52">
@@ -18338,7 +18566,7 @@
         <v>126</v>
       </c>
       <c r="R29" s="41" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="18.75">
